--- a/samples/Entrainement vélo elliptique3.xlsx
+++ b/samples/Entrainement vélo elliptique3.xlsx
@@ -17202,7 +17202,7 @@
         <v>64</v>
       </c>
       <c r="L20" s="14">
-        <f>IF(AND(ISNUMBER(I20),ISNUMBER(K20),K20&lt;&gt;0),15*I20/K20,"")</f>
+        <f t="shared" si="26"/>
         <v>32.8125</v>
       </c>
       <c r="M20" s="13">
@@ -17263,13 +17263,19 @@
         <f t="shared" si="26"/>
         <v>34.761904761904759</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13" t="str">
+      <c r="M21" s="13">
+        <v>86</v>
+      </c>
+      <c r="N21" s="13">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="8"/>
+        <v>20.123999999999999</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="P21" s="8">
+        <v>103</v>
+      </c>
       <c r="Q21" s="8" t="s">
         <v>34</v>
       </c>
@@ -17277,7 +17283,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="12">
-        <v>46043</v>
+        <v>46043.260416666664</v>
       </c>
       <c r="B22" s="8">
         <v>4444444444</v>
@@ -17285,37 +17291,57 @@
       <c r="C22" s="8">
         <v>45</v>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D22" s="9">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="13" t="str">
+        <v>12.533333333333335</v>
+      </c>
+      <c r="E22" s="13">
+        <v>9.4000000000000004</v>
+      </c>
+      <c r="F22" s="8">
+        <v>730</v>
+      </c>
+      <c r="G22" s="13">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="14" t="str">
+        <v>77.659574468085097</v>
+      </c>
+      <c r="H22" s="8">
+        <v>119</v>
+      </c>
+      <c r="I22" s="8">
+        <v>132</v>
+      </c>
+      <c r="J22" s="8">
+        <v>80</v>
+      </c>
+      <c r="K22" s="8">
+        <v>62</v>
+      </c>
+      <c r="L22" s="14">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13" t="str">
+        <v>31.93548387096774</v>
+      </c>
+      <c r="M22" s="13">
+        <v>86.299999999999997</v>
+      </c>
+      <c r="N22" s="13">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+        <v>19.935300000000002</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="P22" s="8">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="R22" s="8"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="12">
-        <v>46044</v>
+        <v>46044.25</v>
       </c>
       <c r="B23" s="8">
         <v>4444444444</v>
@@ -17323,32 +17349,52 @@
       <c r="C23" s="8">
         <v>45</v>
       </c>
-      <c r="D23" s="9" t="str">
+      <c r="D23" s="9">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="13" t="str">
+        <v>12.400000000000002</v>
+      </c>
+      <c r="E23" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F23" s="8">
+        <v>728</v>
+      </c>
+      <c r="G23" s="13">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="14" t="str">
+        <v>78.279569892473106</v>
+      </c>
+      <c r="H23" s="8">
+        <v>121</v>
+      </c>
+      <c r="I23" s="8">
+        <v>133</v>
+      </c>
+      <c r="J23" s="8">
+        <v>103</v>
+      </c>
+      <c r="K23" s="8">
+        <v>69</v>
+      </c>
+      <c r="L23" s="14">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13" t="str">
+        <v>28.913043478260871</v>
+      </c>
+      <c r="M23" s="13">
+        <v>86.5</v>
+      </c>
+      <c r="N23" s="13">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+        <v>20.414000000000001</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="P23" s="8">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="R23" s="8"/>
     </row>
     <row r="24" ht="14.25">

--- a/samples/Entrainement vélo elliptique3.xlsx
+++ b/samples/Entrainement vélo elliptique3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">Puissance en watt / tours/minute</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">Weapons (2025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running Man (2025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Express (2023)</t>
   </si>
   <si>
     <t xml:space="preserve">Mesure VO2max</t>
@@ -17399,7 +17405,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="12">
-        <v>46045</v>
+        <v>46045.260416666664</v>
       </c>
       <c r="B24" s="8">
         <v>4444444444</v>
@@ -17407,37 +17413,57 @@
       <c r="C24" s="8">
         <v>45</v>
       </c>
-      <c r="D24" s="9" t="str">
+      <c r="D24" s="9">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="13" t="str">
+        <v>12.266666666666666</v>
+      </c>
+      <c r="E24" s="13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F24" s="8">
+        <v>719</v>
+      </c>
+      <c r="G24" s="13">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="14" t="str">
+        <v>78.152173913043484</v>
+      </c>
+      <c r="H24" s="8">
+        <v>121</v>
+      </c>
+      <c r="I24" s="8">
+        <v>135</v>
+      </c>
+      <c r="J24" s="8">
+        <v>91</v>
+      </c>
+      <c r="K24" s="8">
+        <v>68</v>
+      </c>
+      <c r="L24" s="14">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+        <v>29.779411764705884</v>
+      </c>
+      <c r="M24" s="13">
+        <v>86.599999999999994</v>
+      </c>
+      <c r="N24" s="13">
+        <v>20.600000000000001</v>
+      </c>
+      <c r="O24" s="15">
+        <f>N24/M24</f>
+        <v>0.2378752886836028</v>
+      </c>
+      <c r="P24" s="8">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="R24" s="8"/>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="12">
-        <v>46046</v>
+        <v>46046.420138888891</v>
       </c>
       <c r="B25" s="8">
         <v>4444444444</v>
@@ -17445,37 +17471,57 @@
       <c r="C25" s="8">
         <v>45</v>
       </c>
-      <c r="D25" s="9" t="str">
+      <c r="D25" s="9">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="13" t="str">
+        <v>12.266666666666666</v>
+      </c>
+      <c r="E25" s="13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F25" s="8">
+        <v>717</v>
+      </c>
+      <c r="G25" s="13">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="14" t="str">
+        <v>77.934782608695656</v>
+      </c>
+      <c r="H25" s="8">
+        <v>127</v>
+      </c>
+      <c r="I25" s="8">
+        <v>143</v>
+      </c>
+      <c r="J25" s="8">
+        <v>112</v>
+      </c>
+      <c r="K25" s="8">
+        <v>69</v>
+      </c>
+      <c r="L25" s="14">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13" t="str">
+        <v>31.086956521739129</v>
+      </c>
+      <c r="M25" s="13">
+        <v>86.25</v>
+      </c>
+      <c r="N25" s="13">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O25" s="15"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+        <v>20.182499999999997</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="P25" s="8">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="R25" s="8"/>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="12">
-        <v>46047</v>
+        <v>46047.322916666664</v>
       </c>
       <c r="B26" s="8">
         <v>4444444444</v>
@@ -17483,37 +17529,57 @@
       <c r="C26" s="8">
         <v>45</v>
       </c>
-      <c r="D26" s="9" t="str">
+      <c r="D26" s="9">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="13" t="str">
+        <v>12.533333333333335</v>
+      </c>
+      <c r="E26" s="13">
+        <v>9.4000000000000004</v>
+      </c>
+      <c r="F26" s="8">
+        <v>732</v>
+      </c>
+      <c r="G26" s="13">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="14" t="str">
+        <v>77.872340425531917</v>
+      </c>
+      <c r="H26" s="8">
+        <v>127</v>
+      </c>
+      <c r="I26" s="8">
+        <v>138</v>
+      </c>
+      <c r="J26" s="8">
+        <v>111</v>
+      </c>
+      <c r="K26" s="8">
+        <v>67</v>
+      </c>
+      <c r="L26" s="14">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13" t="str">
+        <v>30.895522388059703</v>
+      </c>
+      <c r="M26" s="13">
+        <v>86.549999999999997</v>
+      </c>
+      <c r="N26" s="13">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O26" s="15"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+        <v>20.166150000000002</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="P26" s="8">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="R26" s="8"/>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="12">
-        <v>46048</v>
+        <v>46048.260416666664</v>
       </c>
       <c r="B27" s="8">
         <v>4444444444</v>
@@ -17521,37 +17587,57 @@
       <c r="C27" s="8">
         <v>45</v>
       </c>
-      <c r="D27" s="9" t="str">
+      <c r="D27" s="9">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="13" t="str">
+        <v>12.266666666666666</v>
+      </c>
+      <c r="E27" s="13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F27" s="8">
+        <v>713</v>
+      </c>
+      <c r="G27" s="13">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="14" t="str">
+        <v>77.5</v>
+      </c>
+      <c r="H27" s="8">
+        <v>118</v>
+      </c>
+      <c r="I27" s="8">
+        <v>131</v>
+      </c>
+      <c r="J27" s="8">
+        <v>101</v>
+      </c>
+      <c r="K27" s="8">
+        <v>68</v>
+      </c>
+      <c r="L27" s="14">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13" t="str">
+        <v>28.897058823529413</v>
+      </c>
+      <c r="M27" s="13">
+        <v>87.200000000000003</v>
+      </c>
+      <c r="N27" s="13">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+        <v>20.579200000000004</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="P27" s="8">
+        <v>104</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="R27" s="8"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="12">
-        <v>46049</v>
+        <v>46049.260416666664</v>
       </c>
       <c r="B28" s="8">
         <v>4444444444</v>
@@ -17559,23 +17645,35 @@
       <c r="C28" s="8">
         <v>45</v>
       </c>
-      <c r="D28" s="9" t="str">
+      <c r="D28" s="9">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="13" t="str">
+        <v>12.400000000000002</v>
+      </c>
+      <c r="E28" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F28" s="8">
+        <v>726</v>
+      </c>
+      <c r="G28" s="13">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="14" t="str">
+        <v>78.064516129032256</v>
+      </c>
+      <c r="H28" s="8">
+        <v>118</v>
+      </c>
+      <c r="I28" s="8">
+        <v>126</v>
+      </c>
+      <c r="J28" s="8">
+        <v>98</v>
+      </c>
+      <c r="K28" s="8">
+        <v>62</v>
+      </c>
+      <c r="L28" s="14">
         <f t="shared" si="26"/>
-        <v/>
+        <v>30.483870967741936</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="13" t="str">
@@ -17584,7 +17682,9 @@
       </c>
       <c r="O28" s="15"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="R28" s="8"/>
     </row>
     <row r="29" ht="14.25">
@@ -30198,7 +30298,7 @@
       <c r="P360" s="8"/>
       <c r="Q360" s="8"/>
       <c r="R360" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="361" ht="12.75">
@@ -30580,7 +30680,7 @@
       <c r="P370" s="8"/>
       <c r="Q370" s="8"/>
       <c r="R370" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="371" ht="12.75">
@@ -31263,7 +31363,7 @@
         <v>105</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R7" s="8"/>
     </row>
@@ -31321,7 +31421,7 @@
         <v>103</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R8" s="8"/>
     </row>
@@ -31379,7 +31479,7 @@
         <v>104</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R9" s="8"/>
     </row>
@@ -31437,7 +31537,7 @@
         <v>104</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R10" s="8"/>
     </row>
@@ -31495,7 +31595,7 @@
         <v>104</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R11" s="8"/>
     </row>
@@ -31553,7 +31653,7 @@
         <v>104</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R12" s="8"/>
     </row>
@@ -31611,7 +31711,7 @@
         <v>104</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R13" s="8"/>
     </row>
@@ -31669,7 +31769,7 @@
         <v>104</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R14" s="8"/>
     </row>
@@ -31727,7 +31827,7 @@
         <v>103</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R15" s="8"/>
     </row>
@@ -31785,7 +31885,7 @@
         <v>104</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R16" s="8"/>
     </row>
@@ -31843,7 +31943,7 @@
         <v>103</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R17" s="8"/>
     </row>
@@ -31901,7 +32001,7 @@
         <v>104</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R18" s="8"/>
     </row>
@@ -32073,7 +32173,7 @@
         <v>104</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -32131,7 +32231,7 @@
         <v>105</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R23" s="8"/>
     </row>
@@ -32189,7 +32289,7 @@
         <v>103</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R24" s="8"/>
     </row>
@@ -32247,7 +32347,7 @@
         <v>104</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R25" s="8"/>
     </row>
@@ -32305,7 +32405,7 @@
         <v>104</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R26" s="8"/>
     </row>
@@ -32363,7 +32463,7 @@
         <v>103</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R27" s="8"/>
     </row>
@@ -32421,7 +32521,7 @@
         <v>105</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R28" s="8"/>
     </row>
@@ -32479,7 +32579,7 @@
         <v>104</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R29" s="8"/>
     </row>
@@ -32537,7 +32637,7 @@
         <v>103</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R30" s="8"/>
     </row>
@@ -32595,7 +32695,7 @@
         <v>104</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R31" s="8"/>
     </row>
@@ -32653,7 +32753,7 @@
         <v>103</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R32" s="8"/>
     </row>
@@ -32711,7 +32811,7 @@
         <v>104</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R33" s="8"/>
     </row>
@@ -32809,7 +32909,7 @@
         <v>105</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R35" s="8"/>
     </row>
@@ -32867,7 +32967,7 @@
         <v>104</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -32925,7 +33025,7 @@
         <v>104</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R37" s="8"/>
     </row>
@@ -32983,7 +33083,7 @@
         <v>104</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R38" s="8"/>
     </row>
@@ -33041,7 +33141,7 @@
         <v>105</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R39" s="8"/>
     </row>
@@ -33099,7 +33199,7 @@
         <v>104</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R40" s="8"/>
     </row>
@@ -33157,7 +33257,7 @@
         <v>104</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R41" s="8"/>
     </row>
@@ -33215,7 +33315,7 @@
         <v>104</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R42" s="8"/>
     </row>
@@ -33273,7 +33373,7 @@
         <v>103</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R43" s="8"/>
     </row>
@@ -33331,7 +33431,7 @@
         <v>105</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R44" s="8"/>
     </row>
@@ -33389,7 +33489,7 @@
         <v>104</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R45" s="8"/>
     </row>
@@ -33447,7 +33547,7 @@
         <v>104</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -33505,7 +33605,7 @@
         <v>103</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R47" s="8"/>
     </row>
@@ -33563,7 +33663,7 @@
         <v>104</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R48" s="8"/>
     </row>
@@ -33621,7 +33721,7 @@
         <v>103</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R49" s="8"/>
     </row>
@@ -33679,7 +33779,7 @@
         <v>103</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R50" s="8"/>
     </row>
@@ -33737,7 +33837,7 @@
         <v>103</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R51" s="8"/>
     </row>
@@ -33795,7 +33895,7 @@
         <v>103</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R52" s="8"/>
     </row>
@@ -33853,7 +33953,7 @@
         <v>103</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R53" s="8"/>
     </row>
@@ -34235,7 +34335,7 @@
         <v>103</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R63" s="8"/>
     </row>
@@ -34293,7 +34393,7 @@
         <v>103</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R64" s="8"/>
     </row>
@@ -34351,7 +34451,7 @@
         <v>103</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R65" s="8"/>
     </row>
@@ -34553,7 +34653,7 @@
         <v>103</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R70" s="8"/>
     </row>
@@ -34611,7 +34711,7 @@
         <v>104</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R71" s="8"/>
     </row>
@@ -34669,7 +34769,7 @@
         <v>104</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R72" s="8"/>
     </row>
@@ -34727,7 +34827,7 @@
         <v>103</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R73" s="8"/>
     </row>
@@ -34785,7 +34885,7 @@
         <v>104</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R74" s="8"/>
     </row>
@@ -34843,7 +34943,7 @@
         <v>103</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R75" s="8"/>
     </row>
@@ -34901,7 +35001,7 @@
         <v>103</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R76" s="8"/>
     </row>
@@ -34959,7 +35059,7 @@
         <v>103</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R77" s="8"/>
     </row>
@@ -35017,7 +35117,7 @@
         <v>104</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R78" s="8"/>
     </row>
@@ -35075,7 +35175,7 @@
         <v>103</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R79" s="8"/>
     </row>
@@ -35133,7 +35233,7 @@
         <v>102</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R80" s="8"/>
     </row>
@@ -35191,7 +35291,7 @@
         <v>103</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R81" s="8"/>
     </row>
@@ -35249,10 +35349,10 @@
         <v>103</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R82" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" ht="12.75">
@@ -35309,10 +35409,10 @@
         <v>104</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R83" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" ht="12.75">
@@ -35369,10 +35469,10 @@
         <v>103</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" ht="12.75">
@@ -35429,7 +35529,7 @@
         <v>102</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R85" s="8"/>
     </row>
@@ -35487,10 +35587,10 @@
         <v>103</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" ht="12.75">
@@ -35534,7 +35634,7 @@
       </c>
       <c r="Q87" s="8"/>
       <c r="R87" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" ht="12.75">
@@ -35578,7 +35678,7 @@
       </c>
       <c r="Q88" s="8"/>
       <c r="R88" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" ht="12.75">
@@ -35616,7 +35716,7 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" ht="12.75">
@@ -35654,7 +35754,7 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" ht="12.75">
@@ -35698,7 +35798,7 @@
       </c>
       <c r="Q91" s="8"/>
       <c r="R91" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" ht="12.75">
@@ -35742,7 +35842,7 @@
       </c>
       <c r="Q92" s="8"/>
       <c r="R92" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" ht="12.75">
@@ -35782,7 +35882,7 @@
       </c>
       <c r="Q93" s="8"/>
       <c r="R93" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" ht="12.75">
@@ -35822,7 +35922,7 @@
       </c>
       <c r="Q94" s="8"/>
       <c r="R94" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="12.75">
@@ -35862,7 +35962,7 @@
       </c>
       <c r="Q95" s="8"/>
       <c r="R95" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" ht="12.75">
@@ -35906,7 +36006,7 @@
       </c>
       <c r="Q96" s="8"/>
       <c r="R96" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" ht="12.75">
@@ -35950,7 +36050,7 @@
       </c>
       <c r="Q97" s="8"/>
       <c r="R97" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" ht="12.75">
@@ -36007,10 +36107,10 @@
         <v>103</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" ht="12.75">
@@ -36067,7 +36167,7 @@
         <v>103</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R99" s="8"/>
     </row>
@@ -36125,7 +36225,7 @@
         <v>103</v>
       </c>
       <c r="Q100" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R100" s="8"/>
     </row>
@@ -36183,7 +36283,7 @@
         <v>102</v>
       </c>
       <c r="Q101" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R101" s="8"/>
     </row>
@@ -36241,7 +36341,7 @@
         <v>103</v>
       </c>
       <c r="Q102" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R102" s="8"/>
     </row>
@@ -36299,7 +36399,7 @@
         <v>102</v>
       </c>
       <c r="Q103" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R103" s="8"/>
     </row>
@@ -36357,7 +36457,7 @@
         <v>103</v>
       </c>
       <c r="Q104" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R104" s="8"/>
     </row>
@@ -36415,7 +36515,7 @@
         <v>103</v>
       </c>
       <c r="Q105" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R105" s="8"/>
     </row>
@@ -36473,7 +36573,7 @@
         <v>102</v>
       </c>
       <c r="Q106" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R106" s="8"/>
     </row>
@@ -36531,7 +36631,7 @@
         <v>103</v>
       </c>
       <c r="Q107" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R107" s="8"/>
     </row>
@@ -36589,7 +36689,7 @@
         <v>103</v>
       </c>
       <c r="Q108" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R108" s="8"/>
     </row>
@@ -36647,7 +36747,7 @@
         <v>104</v>
       </c>
       <c r="Q109" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R109" s="8"/>
     </row>
@@ -36705,7 +36805,7 @@
         <v>103</v>
       </c>
       <c r="Q110" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R110" s="8"/>
     </row>
@@ -37063,7 +37163,7 @@
         <v>102</v>
       </c>
       <c r="Q119" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R119" s="8"/>
     </row>
@@ -37121,7 +37221,7 @@
         <v>103</v>
       </c>
       <c r="Q120" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R120" s="8"/>
     </row>
@@ -37179,7 +37279,7 @@
         <v>103</v>
       </c>
       <c r="Q121" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R121" s="8"/>
     </row>
@@ -37395,7 +37495,7 @@
         <v>103</v>
       </c>
       <c r="Q126" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R126" s="8"/>
     </row>
@@ -37453,7 +37553,7 @@
         <v>103</v>
       </c>
       <c r="Q127" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R127" s="8"/>
     </row>
@@ -37511,7 +37611,7 @@
         <v>103</v>
       </c>
       <c r="Q128" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R128" s="8"/>
     </row>
@@ -37569,7 +37669,7 @@
         <v>104</v>
       </c>
       <c r="Q129" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R129" s="8"/>
     </row>
@@ -37627,7 +37727,7 @@
         <v>104</v>
       </c>
       <c r="Q130" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R130" s="8"/>
     </row>
@@ -37685,7 +37785,7 @@
         <v>103</v>
       </c>
       <c r="Q131" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R131" s="8"/>
     </row>
@@ -37743,7 +37843,7 @@
         <v>103</v>
       </c>
       <c r="Q132" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R132" s="8"/>
     </row>
@@ -37801,7 +37901,7 @@
         <v>103</v>
       </c>
       <c r="Q133" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R133" s="8"/>
     </row>
@@ -37859,7 +37959,7 @@
         <v>103</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R134" s="8"/>
     </row>
@@ -37917,7 +38017,7 @@
         <v>103</v>
       </c>
       <c r="Q135" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R135" s="8"/>
     </row>
@@ -37975,7 +38075,7 @@
         <v>104</v>
       </c>
       <c r="Q136" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R136" s="8"/>
     </row>
@@ -38033,7 +38133,7 @@
         <v>103</v>
       </c>
       <c r="Q137" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R137" s="8"/>
     </row>
@@ -38091,7 +38191,7 @@
         <v>103</v>
       </c>
       <c r="Q138" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R138" s="8"/>
     </row>
@@ -38149,7 +38249,7 @@
         <v>103</v>
       </c>
       <c r="Q139" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R139" s="8"/>
     </row>
@@ -38207,10 +38307,10 @@
         <v>102</v>
       </c>
       <c r="Q140" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R140" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" ht="12.75">
@@ -38267,7 +38367,7 @@
         <v>103</v>
       </c>
       <c r="Q141" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R141" s="8"/>
     </row>
@@ -38325,7 +38425,7 @@
         <v>102</v>
       </c>
       <c r="Q142" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R142" s="8"/>
     </row>
@@ -38384,7 +38484,7 @@
         <v>103</v>
       </c>
       <c r="Q143" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R143" s="8"/>
     </row>
@@ -38442,7 +38542,7 @@
         <v>103</v>
       </c>
       <c r="Q144" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R144" s="8"/>
     </row>
@@ -38572,7 +38672,7 @@
         <v>103</v>
       </c>
       <c r="Q147" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R147" s="8"/>
     </row>
@@ -38630,7 +38730,7 @@
         <v>103</v>
       </c>
       <c r="Q148" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R148" s="8"/>
     </row>
@@ -38688,7 +38788,7 @@
         <v>103</v>
       </c>
       <c r="Q149" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R149" s="8"/>
     </row>
@@ -38785,7 +38885,7 @@
         <v>103</v>
       </c>
       <c r="Q151" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R151" s="8"/>
     </row>
@@ -38917,10 +39017,10 @@
         <v>102</v>
       </c>
       <c r="Q154" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R154" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" ht="12.75">
@@ -38977,7 +39077,7 @@
         <v>102</v>
       </c>
       <c r="Q155" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R155" s="8"/>
     </row>
@@ -39035,7 +39135,7 @@
         <v>102</v>
       </c>
       <c r="Q156" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R156" s="8"/>
     </row>
@@ -39093,7 +39193,7 @@
         <v>103</v>
       </c>
       <c r="Q157" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R157" s="8"/>
     </row>
@@ -39151,7 +39251,7 @@
         <v>104</v>
       </c>
       <c r="Q158" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R158" s="8"/>
     </row>
@@ -39209,7 +39309,7 @@
         <v>104</v>
       </c>
       <c r="Q159" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R159" s="8"/>
     </row>
@@ -39267,7 +39367,7 @@
         <v>103</v>
       </c>
       <c r="Q160" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R160" s="18"/>
     </row>
@@ -39325,7 +39425,7 @@
         <v>104</v>
       </c>
       <c r="Q161" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R161" s="18"/>
     </row>
@@ -39383,7 +39483,7 @@
         <v>103</v>
       </c>
       <c r="Q162" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163" ht="12.75">
@@ -39440,10 +39540,10 @@
         <v>104</v>
       </c>
       <c r="Q163" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R163" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" ht="12.75">
@@ -39500,7 +39600,7 @@
         <v>102</v>
       </c>
       <c r="Q164" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R164" s="8"/>
     </row>
@@ -39558,7 +39658,7 @@
         <v>102</v>
       </c>
       <c r="Q165" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R165" s="8"/>
     </row>
@@ -39616,7 +39716,7 @@
         <v>102</v>
       </c>
       <c r="Q166" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R166" s="8"/>
     </row>
@@ -39716,7 +39816,7 @@
         <v>103</v>
       </c>
       <c r="Q168" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R168" s="8"/>
     </row>
@@ -39816,7 +39916,7 @@
         <v>101</v>
       </c>
       <c r="Q170" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171" ht="12.75">
@@ -39873,10 +39973,10 @@
         <v>102</v>
       </c>
       <c r="Q171" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R171" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" ht="12.75">
@@ -39933,7 +40033,7 @@
         <v>101</v>
       </c>
       <c r="Q172" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R172" s="8"/>
     </row>
@@ -39991,7 +40091,7 @@
         <v>101</v>
       </c>
       <c r="Q173" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R173" s="8"/>
     </row>
@@ -40049,7 +40149,7 @@
         <v>102</v>
       </c>
       <c r="Q174" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R174" s="8"/>
     </row>
@@ -40153,7 +40253,7 @@
         <v>103</v>
       </c>
       <c r="Q176" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R176" s="8"/>
     </row>
@@ -40211,7 +40311,7 @@
         <v>102</v>
       </c>
       <c r="Q177" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R177" s="8"/>
     </row>
@@ -40269,7 +40369,7 @@
         <v>102</v>
       </c>
       <c r="Q178" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R178" s="8"/>
     </row>
@@ -40327,7 +40427,7 @@
         <v>102</v>
       </c>
       <c r="Q179" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R179" s="8"/>
     </row>
@@ -40385,7 +40485,7 @@
         <v>101</v>
       </c>
       <c r="Q180" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R180" s="18"/>
     </row>
@@ -40485,7 +40585,7 @@
         <v>100</v>
       </c>
       <c r="Q182" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R182" s="8"/>
     </row>
@@ -40543,7 +40643,7 @@
         <v>102</v>
       </c>
       <c r="Q183" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R183" s="18"/>
     </row>
@@ -40601,10 +40701,10 @@
         <v>101</v>
       </c>
       <c r="Q184" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R184" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" ht="12.75">
@@ -40661,7 +40761,7 @@
         <v>102</v>
       </c>
       <c r="Q185" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R185" s="8"/>
     </row>
@@ -40719,7 +40819,7 @@
         <v>101</v>
       </c>
       <c r="Q186" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R186" s="8"/>
     </row>
@@ -41607,7 +41707,7 @@
         <v>102</v>
       </c>
       <c r="Q210" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R210" s="8"/>
     </row>
@@ -41665,10 +41765,10 @@
         <v>102</v>
       </c>
       <c r="Q211" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R211" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="212" ht="12.75">
@@ -41725,7 +41825,7 @@
         <v>102</v>
       </c>
       <c r="Q212" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R212" s="8"/>
     </row>
@@ -41783,7 +41883,7 @@
         <v>102</v>
       </c>
       <c r="Q213" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R213" s="8"/>
     </row>
@@ -41841,7 +41941,7 @@
         <v>101</v>
       </c>
       <c r="Q214" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R214" s="8"/>
     </row>
@@ -41979,7 +42079,7 @@
         <v>102</v>
       </c>
       <c r="Q217" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R217" s="8"/>
     </row>
@@ -42037,7 +42137,7 @@
         <v>101</v>
       </c>
       <c r="Q218" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R218" s="8"/>
     </row>
@@ -42095,7 +42195,7 @@
         <v>102</v>
       </c>
       <c r="Q219" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R219" s="8"/>
     </row>
@@ -42309,7 +42409,7 @@
         <v>102</v>
       </c>
       <c r="Q224" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R224" s="8"/>
     </row>
@@ -42367,7 +42467,7 @@
         <v>102</v>
       </c>
       <c r="Q225" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R225" s="8"/>
     </row>
@@ -42425,7 +42525,7 @@
         <v>102</v>
       </c>
       <c r="Q226" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R226" s="8"/>
     </row>
@@ -42630,7 +42730,7 @@
         <v>101</v>
       </c>
       <c r="Q231" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R231" s="8"/>
     </row>
@@ -42688,10 +42788,10 @@
         <v>101</v>
       </c>
       <c r="Q232" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R232" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" ht="12.75">
@@ -42945,7 +43045,7 @@
         <v>101</v>
       </c>
       <c r="Q238" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R238" s="8"/>
     </row>
@@ -43003,10 +43103,10 @@
         <v>102</v>
       </c>
       <c r="Q239" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R239" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240" ht="12.75">
@@ -43063,7 +43163,7 @@
         <v>102</v>
       </c>
       <c r="Q240" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R240" s="8"/>
     </row>
@@ -43121,7 +43221,7 @@
         <v>101</v>
       </c>
       <c r="Q241" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R241" s="8"/>
     </row>
@@ -43179,7 +43279,7 @@
         <v>101</v>
       </c>
       <c r="Q242" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R242" s="8"/>
     </row>
@@ -43317,10 +43417,10 @@
         <v>103</v>
       </c>
       <c r="Q245" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R245" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="246" ht="12.75">
@@ -43377,7 +43477,7 @@
         <v>103</v>
       </c>
       <c r="Q246" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R246" s="8"/>
     </row>
@@ -43435,7 +43535,7 @@
         <v>103</v>
       </c>
       <c r="Q247" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R247" s="8"/>
     </row>
@@ -43493,7 +43593,7 @@
         <v>102</v>
       </c>
       <c r="Q248" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R248" s="8"/>
     </row>
@@ -43551,7 +43651,7 @@
         <v>103</v>
       </c>
       <c r="Q249" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R249" s="8"/>
     </row>
@@ -43609,7 +43709,7 @@
         <v>103</v>
       </c>
       <c r="Q250" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R250" s="8"/>
     </row>
@@ -43667,7 +43767,7 @@
         <v>103</v>
       </c>
       <c r="Q251" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R251" s="8"/>
     </row>
@@ -43725,7 +43825,7 @@
         <v>103</v>
       </c>
       <c r="Q252" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R252" s="8"/>
     </row>
@@ -43783,7 +43883,7 @@
         <v>102</v>
       </c>
       <c r="Q253" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R253" s="8"/>
     </row>
@@ -43841,7 +43941,7 @@
         <v>103</v>
       </c>
       <c r="Q254" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R254" s="8"/>
     </row>
@@ -43899,7 +43999,7 @@
         <v>103</v>
       </c>
       <c r="Q255" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R255" s="8"/>
     </row>
@@ -43957,7 +44057,7 @@
         <v>102</v>
       </c>
       <c r="Q256" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R256" s="8"/>
     </row>
@@ -44015,7 +44115,7 @@
         <v>102</v>
       </c>
       <c r="Q257" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R257" s="8"/>
     </row>
@@ -44058,7 +44158,7 @@
       </c>
       <c r="Q258" s="8"/>
       <c r="R258" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="259" ht="12.75">
@@ -44115,7 +44215,7 @@
         <v>103</v>
       </c>
       <c r="Q259" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R259" s="8"/>
     </row>
@@ -44173,7 +44273,7 @@
         <v>103</v>
       </c>
       <c r="Q260" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R260" s="8"/>
     </row>
@@ -44231,7 +44331,7 @@
         <v>102</v>
       </c>
       <c r="Q261" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R261" s="8"/>
     </row>
@@ -44289,7 +44389,7 @@
         <v>103</v>
       </c>
       <c r="Q262" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R262" s="8"/>
     </row>
@@ -44347,7 +44447,7 @@
         <v>102</v>
       </c>
       <c r="Q263" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R263" s="8"/>
     </row>
@@ -44489,7 +44589,7 @@
         <v>101</v>
       </c>
       <c r="Q266" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R266" s="8"/>
     </row>
@@ -44547,7 +44647,7 @@
         <v>103</v>
       </c>
       <c r="Q267" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R267" s="8"/>
     </row>
@@ -44605,7 +44705,7 @@
         <v>103</v>
       </c>
       <c r="Q268" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R268" s="8"/>
     </row>
@@ -44663,7 +44763,7 @@
         <v>103</v>
       </c>
       <c r="Q269" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R269" s="8"/>
     </row>
@@ -44721,7 +44821,7 @@
         <v>103</v>
       </c>
       <c r="Q270" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R270" s="8"/>
     </row>
@@ -44779,7 +44879,7 @@
         <v>103</v>
       </c>
       <c r="Q271" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R271" s="8"/>
     </row>
@@ -44816,7 +44916,7 @@
       <c r="P272" s="8"/>
       <c r="Q272" s="8"/>
       <c r="R272" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="273" ht="12.75">
@@ -44873,7 +44973,7 @@
         <v>102</v>
       </c>
       <c r="Q273" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R273" s="20"/>
     </row>
@@ -44931,7 +45031,7 @@
         <v>103</v>
       </c>
       <c r="Q274" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R274" s="8"/>
     </row>
@@ -44989,7 +45089,7 @@
         <v>102</v>
       </c>
       <c r="Q275" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R275" s="8"/>
     </row>
@@ -45047,7 +45147,7 @@
         <v>103</v>
       </c>
       <c r="Q276" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R276" s="8"/>
     </row>
@@ -45105,7 +45205,7 @@
         <v>103</v>
       </c>
       <c r="Q277" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R277" s="8"/>
     </row>
@@ -45255,7 +45355,7 @@
         <v>103</v>
       </c>
       <c r="Q280" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R280" s="8"/>
     </row>
@@ -45313,7 +45413,7 @@
         <v>101</v>
       </c>
       <c r="Q281" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R281" s="8"/>
     </row>
@@ -45365,7 +45465,7 @@
         <v>102</v>
       </c>
       <c r="Q282" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R282" s="8"/>
     </row>
@@ -45423,7 +45523,7 @@
         <v>103</v>
       </c>
       <c r="Q283" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R283" s="8"/>
     </row>
@@ -45481,7 +45581,7 @@
         <v>103</v>
       </c>
       <c r="Q284" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R284" s="8"/>
     </row>
@@ -45539,7 +45639,7 @@
         <v>101</v>
       </c>
       <c r="Q285" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R285" s="8"/>
     </row>
@@ -45584,7 +45684,7 @@
       </c>
       <c r="Q286" s="5"/>
       <c r="R286" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="287" ht="12.75">
@@ -45641,7 +45741,7 @@
         <v>103</v>
       </c>
       <c r="Q287" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R287" s="8"/>
     </row>
@@ -45699,7 +45799,7 @@
         <v>101</v>
       </c>
       <c r="Q288" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R288" s="8"/>
     </row>
@@ -45751,7 +45851,7 @@
       </c>
       <c r="P289" s="8"/>
       <c r="Q289" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R289" s="8"/>
     </row>
@@ -45809,7 +45909,7 @@
         <v>102</v>
       </c>
       <c r="Q290" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R290" s="8"/>
     </row>
@@ -45867,7 +45967,7 @@
         <v>103</v>
       </c>
       <c r="Q291" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R291" s="8"/>
     </row>
@@ -46353,7 +46453,7 @@
         <v>103</v>
       </c>
       <c r="Q302" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R302" s="8"/>
     </row>
@@ -46411,7 +46511,7 @@
         <v>103</v>
       </c>
       <c r="Q303" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R303" s="8"/>
     </row>
@@ -46599,7 +46699,7 @@
         <v>103</v>
       </c>
       <c r="Q307" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R307" s="8"/>
     </row>
@@ -46657,7 +46757,7 @@
         <v>103</v>
       </c>
       <c r="Q308" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R308" s="8"/>
     </row>
@@ -46715,7 +46815,7 @@
         <v>102</v>
       </c>
       <c r="Q309" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R309" s="8"/>
     </row>
@@ -46773,7 +46873,7 @@
         <v>103</v>
       </c>
       <c r="Q310" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R310" s="8"/>
     </row>
@@ -46825,10 +46925,10 @@
         <v>102</v>
       </c>
       <c r="Q311" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R311" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="312" ht="12.75">
@@ -46872,7 +46972,7 @@
       </c>
       <c r="Q312" s="8"/>
       <c r="R312" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" ht="12.75">
@@ -46929,10 +47029,10 @@
         <v>102</v>
       </c>
       <c r="Q313" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R313" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="314" ht="12.75">
@@ -46976,7 +47076,7 @@
       </c>
       <c r="Q314" s="8"/>
       <c r="R314" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="315" ht="12.75">
@@ -47033,10 +47133,10 @@
         <v>102</v>
       </c>
       <c r="Q315" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R315" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="316" ht="12.75">
@@ -47093,10 +47193,10 @@
         <v>104</v>
       </c>
       <c r="Q316" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R316" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="317" ht="12.75">
@@ -47153,10 +47253,10 @@
         <v>104</v>
       </c>
       <c r="Q317" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R317" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="318" ht="12.75">
@@ -47213,10 +47313,10 @@
         <v>103</v>
       </c>
       <c r="Q318" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R318" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="319" ht="12.75">
@@ -47273,10 +47373,10 @@
         <v>103</v>
       </c>
       <c r="Q319" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R319" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="320" ht="12.75">
@@ -47421,10 +47521,10 @@
         <v>102</v>
       </c>
       <c r="Q322" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="R322" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="R322" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="323" ht="12.75">
@@ -47481,10 +47581,10 @@
         <v>102</v>
       </c>
       <c r="Q323" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R323" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="324" ht="12.75">
@@ -47541,7 +47641,7 @@
         <v>102</v>
       </c>
       <c r="Q324" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R324" s="8"/>
     </row>
@@ -47599,7 +47699,7 @@
         <v>102</v>
       </c>
       <c r="Q325" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R325" s="8"/>
     </row>
@@ -47657,7 +47757,7 @@
         <v>102</v>
       </c>
       <c r="Q326" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R326" s="8"/>
     </row>
@@ -47715,7 +47815,7 @@
         <v>102</v>
       </c>
       <c r="Q327" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R327" s="8"/>
     </row>
@@ -47773,7 +47873,7 @@
         <v>103</v>
       </c>
       <c r="Q328" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R328" s="8"/>
     </row>
@@ -47831,10 +47931,10 @@
         <v>103</v>
       </c>
       <c r="Q329" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R329" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="330" ht="12.75">
@@ -47891,7 +47991,7 @@
         <v>102</v>
       </c>
       <c r="Q330" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R330" s="8"/>
     </row>
@@ -47949,7 +48049,7 @@
         <v>102</v>
       </c>
       <c r="Q331" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R331" s="8"/>
     </row>
@@ -48052,7 +48152,7 @@
       </c>
       <c r="Q333" s="8"/>
       <c r="R333" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="334" ht="12.75">
@@ -48399,7 +48499,7 @@
         <v>102</v>
       </c>
       <c r="Q339" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R339" s="8"/>
     </row>
@@ -48457,7 +48557,7 @@
         <v>103</v>
       </c>
       <c r="Q340" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R340" s="8"/>
     </row>
@@ -48515,7 +48615,7 @@
         <v>103</v>
       </c>
       <c r="Q341" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R341" s="8"/>
     </row>
@@ -48573,7 +48673,7 @@
         <v>103</v>
       </c>
       <c r="Q342" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R342" s="8"/>
     </row>
@@ -48631,7 +48731,7 @@
         <v>103</v>
       </c>
       <c r="Q343" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R343" s="8"/>
     </row>
@@ -48689,7 +48789,7 @@
         <v>104</v>
       </c>
       <c r="Q344" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R344" s="8"/>
     </row>
@@ -48747,7 +48847,7 @@
         <v>102</v>
       </c>
       <c r="Q345" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R345" s="8"/>
     </row>
@@ -48805,7 +48905,7 @@
         <v>103</v>
       </c>
       <c r="Q346" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R346" s="8"/>
     </row>
@@ -48863,7 +48963,7 @@
         <v>103</v>
       </c>
       <c r="Q347" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R347" s="8"/>
     </row>
@@ -48921,7 +49021,7 @@
         <v>102</v>
       </c>
       <c r="Q348" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R348" s="8"/>
     </row>
@@ -48979,7 +49079,7 @@
         <v>105</v>
       </c>
       <c r="Q349" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R349" s="8"/>
     </row>
@@ -49037,7 +49137,7 @@
         <v>103</v>
       </c>
       <c r="Q350" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R350" s="8"/>
     </row>
@@ -49095,7 +49195,7 @@
         <v>104</v>
       </c>
       <c r="Q351" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R351" s="8"/>
     </row>
@@ -49153,7 +49253,7 @@
         <v>103</v>
       </c>
       <c r="Q352" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R352" s="8"/>
     </row>
@@ -49211,7 +49311,7 @@
         <v>103</v>
       </c>
       <c r="Q353" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R353" s="8"/>
     </row>
@@ -49263,7 +49363,7 @@
       <c r="O354" s="15"/>
       <c r="P354" s="8"/>
       <c r="Q354" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R354" s="8"/>
     </row>
@@ -49378,7 +49478,7 @@
       <c r="P357" s="8"/>
       <c r="Q357" s="8"/>
       <c r="R357" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="358" ht="12.75">
@@ -49416,7 +49516,7 @@
       <c r="P358" s="8"/>
       <c r="Q358" s="8"/>
       <c r="R358" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="359" ht="12.75">
@@ -49454,7 +49554,7 @@
       <c r="P359" s="8"/>
       <c r="Q359" s="8"/>
       <c r="R359" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="360" ht="12.75">
@@ -49492,7 +49592,7 @@
       <c r="P360" s="8"/>
       <c r="Q360" s="8"/>
       <c r="R360" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="361" ht="12.75">
@@ -49530,7 +49630,7 @@
       <c r="P361" s="8"/>
       <c r="Q361" s="8"/>
       <c r="R361" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="362" ht="12.75">
@@ -49568,7 +49668,7 @@
       <c r="P362" s="8"/>
       <c r="Q362" s="8"/>
       <c r="R362" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="363" ht="12.75">
@@ -49607,7 +49707,7 @@
       <c r="P363" s="8"/>
       <c r="Q363" s="8"/>
       <c r="R363" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="364" ht="12.75">
@@ -49648,7 +49748,7 @@
       </c>
       <c r="Q364" s="8"/>
       <c r="R364" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="365" ht="12.75">
@@ -50288,7 +50388,7 @@
         <v>106</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P10" s="8"/>
     </row>
@@ -50340,7 +50440,7 @@
         <v>104</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P11" s="8"/>
     </row>
@@ -50392,7 +50492,7 @@
         <v>103</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P12" s="8"/>
     </row>
@@ -50444,7 +50544,7 @@
         <v>105</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P13" s="8"/>
     </row>
@@ -50481,7 +50581,7 @@
         <v>103</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P14" s="8"/>
     </row>
@@ -50533,7 +50633,7 @@
         <v>104</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P15" s="8"/>
     </row>
@@ -50585,7 +50685,7 @@
         <v>104</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P16" s="8"/>
     </row>
@@ -50637,7 +50737,7 @@
         <v>103</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="8"/>
     </row>
@@ -50689,7 +50789,7 @@
         <v>104</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="8"/>
     </row>
@@ -50735,7 +50835,7 @@
         <v>104</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="8"/>
     </row>
@@ -50781,7 +50881,7 @@
         <v>105</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P20" s="8"/>
     </row>
@@ -50833,7 +50933,7 @@
         <v>104</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P21" s="8"/>
     </row>
@@ -50885,7 +50985,7 @@
         <v>105</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P22" s="8"/>
     </row>
@@ -50937,7 +51037,7 @@
         <v>105</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P23" s="8"/>
     </row>
@@ -50989,7 +51089,7 @@
         <v>104</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P24" s="8"/>
     </row>
@@ -51041,7 +51141,7 @@
         <v>105</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P25" s="8"/>
     </row>
@@ -51093,7 +51193,7 @@
         <v>105</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P26" s="8"/>
     </row>
@@ -51145,7 +51245,7 @@
         <v>104</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P27" s="8"/>
     </row>
@@ -51191,7 +51291,7 @@
         <v>105</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P28" s="8"/>
     </row>
@@ -51243,7 +51343,7 @@
         <v>104</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P29" s="8"/>
     </row>
@@ -51295,7 +51395,7 @@
         <v>104</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P30" s="8"/>
     </row>
@@ -51347,7 +51447,7 @@
         <v>104</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P31" s="8"/>
     </row>
@@ -51399,7 +51499,7 @@
         <v>103</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P32" s="8"/>
     </row>
@@ -51451,7 +51551,7 @@
         <v>103</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P33" s="8"/>
     </row>
@@ -51503,7 +51603,7 @@
         <v>103</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P34" s="8"/>
     </row>
@@ -51555,7 +51655,7 @@
         <v>105</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P35" s="8"/>
     </row>
@@ -51607,7 +51707,7 @@
         <v>104</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P36" s="8"/>
     </row>
@@ -51659,7 +51759,7 @@
         <v>104</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P37" s="8"/>
     </row>
@@ -51711,7 +51811,7 @@
         <v>103</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P38" s="8"/>
     </row>
@@ -51763,7 +51863,7 @@
         <v>103</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P39" s="8"/>
     </row>
@@ -51815,7 +51915,7 @@
         <v>104</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P40" s="8"/>
     </row>
@@ -51867,7 +51967,7 @@
         <v>103</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P41" s="8"/>
     </row>
@@ -51919,7 +52019,7 @@
         <v>103</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P42" s="8"/>
     </row>
@@ -51971,7 +52071,7 @@
         <v>103</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P43" s="8"/>
     </row>
@@ -52023,7 +52123,7 @@
         <v>104</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P44" s="8"/>
     </row>
@@ -52075,7 +52175,7 @@
         <v>104</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P45" s="8"/>
     </row>
@@ -52127,7 +52227,7 @@
         <v>104</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P46" s="8"/>
     </row>
@@ -52179,7 +52279,7 @@
         <v>104</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P47" s="8"/>
     </row>
@@ -52231,7 +52331,7 @@
         <v>104</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P48" s="8"/>
     </row>
@@ -52283,7 +52383,7 @@
         <v>104</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P49" s="8"/>
     </row>
@@ -52515,7 +52615,7 @@
         <v>105</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P55" s="8"/>
     </row>
@@ -52567,7 +52667,7 @@
         <v>104</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P56" s="8"/>
     </row>
@@ -52619,7 +52719,7 @@
         <v>104</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P57" s="8"/>
     </row>
@@ -52799,7 +52899,7 @@
         <v>104</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P62" s="8"/>
     </row>
@@ -52851,10 +52951,10 @@
         <v>104</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" ht="14.25">
@@ -52905,10 +53005,10 @@
         <v>104</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" ht="12.75">
@@ -52959,10 +53059,10 @@
         <v>104</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" ht="12.75">
@@ -53013,10 +53113,10 @@
         <v>104</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" ht="12.75">
@@ -53067,7 +53167,7 @@
         <v>105</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P67" s="8"/>
     </row>
@@ -53119,7 +53219,7 @@
         <v>104</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P68" s="8"/>
     </row>
@@ -53171,7 +53271,7 @@
         <v>104</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P69" s="8"/>
     </row>
@@ -53223,7 +53323,7 @@
         <v>104</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P70" s="8"/>
     </row>
@@ -53275,7 +53375,7 @@
         <v>103</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P71" s="8"/>
     </row>
@@ -53327,7 +53427,7 @@
         <v>105</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P72" s="8"/>
     </row>
@@ -53379,7 +53479,7 @@
         <v>103</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P73" s="8"/>
     </row>
@@ -53431,7 +53531,7 @@
         <v>104</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P74" s="8"/>
     </row>
@@ -53483,7 +53583,7 @@
         <v>103</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P75" s="8"/>
     </row>
@@ -53535,10 +53635,10 @@
         <v>104</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" ht="12.75">
@@ -53589,10 +53689,10 @@
         <v>104</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" ht="12.75">
@@ -53643,10 +53743,10 @@
         <v>104</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" ht="12.75">
@@ -53697,10 +53797,10 @@
         <v>104</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" ht="12.75">
@@ -53751,7 +53851,7 @@
         <v>104</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P80" s="8"/>
     </row>
@@ -53803,7 +53903,7 @@
         <v>104</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P81" s="8"/>
     </row>
@@ -53855,7 +53955,7 @@
         <v>103</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P82" s="8"/>
     </row>
@@ -53907,7 +54007,7 @@
         <v>102</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P83" s="8"/>
     </row>
@@ -53959,7 +54059,7 @@
         <v>103</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P84" s="8"/>
     </row>
@@ -54005,7 +54105,7 @@
         <v>102</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P85" s="8"/>
     </row>
@@ -54057,10 +54157,10 @@
         <v>102</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" ht="12.75">
@@ -54111,7 +54211,7 @@
         <v>102</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P87" s="8"/>
     </row>
@@ -54163,7 +54263,7 @@
         <v>102</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P88" s="8"/>
     </row>
@@ -54279,7 +54379,7 @@
         <v>102</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P91" s="8"/>
     </row>
@@ -54331,7 +54431,7 @@
         <v>102</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P92" s="8"/>
     </row>
@@ -54383,7 +54483,7 @@
         <v>102</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P93" s="8"/>
     </row>
@@ -54435,7 +54535,7 @@
         <v>103</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P94" s="8"/>
     </row>
@@ -54487,7 +54587,7 @@
         <v>103</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P95" s="8"/>
     </row>
@@ -54539,7 +54639,7 @@
         <v>102</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P96" s="8"/>
     </row>
@@ -54591,7 +54691,7 @@
         <v>103</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P97" s="8"/>
     </row>
@@ -54643,7 +54743,7 @@
         <v>102</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P98" s="8"/>
     </row>
@@ -54695,7 +54795,7 @@
         <v>102</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P99" s="8"/>
     </row>
@@ -54747,7 +54847,7 @@
         <v>103</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P100" s="8"/>
     </row>
@@ -54799,7 +54899,7 @@
         <v>103</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P101" s="8"/>
     </row>
@@ -55139,7 +55239,7 @@
         <v>103</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P111" s="8"/>
     </row>
@@ -55190,7 +55290,7 @@
         <v>102</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P112" s="8"/>
     </row>
@@ -55241,7 +55341,7 @@
         <v>103</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P113" s="8"/>
     </row>
@@ -55292,7 +55392,7 @@
         <v>102</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P114" s="8"/>
     </row>
@@ -55343,7 +55443,7 @@
         <v>102</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P115" s="8"/>
     </row>
@@ -55452,7 +55552,7 @@
         <v>102</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P118" s="8"/>
     </row>
@@ -55503,7 +55603,7 @@
         <v>102</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P119" s="8"/>
     </row>
@@ -55554,7 +55654,7 @@
         <v>102</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P120" s="8"/>
     </row>
@@ -55605,7 +55705,7 @@
         <v>101</v>
       </c>
       <c r="O121" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P121" s="8"/>
     </row>
@@ -55656,7 +55756,7 @@
         <v>102</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P122" s="8"/>
     </row>
@@ -55707,7 +55807,7 @@
         <v>102</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P123" s="8"/>
     </row>
@@ -55758,7 +55858,7 @@
         <v>102</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P124" s="8"/>
     </row>
@@ -55809,7 +55909,7 @@
         <v>101</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P125" s="8"/>
     </row>
@@ -55860,7 +55960,7 @@
         <v>102</v>
       </c>
       <c r="O126" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P126" s="8"/>
     </row>
@@ -55911,7 +56011,7 @@
         <v>103</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P127" s="8"/>
     </row>
@@ -56061,7 +56161,7 @@
         <v>103</v>
       </c>
       <c r="O131" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P131" s="8"/>
     </row>
@@ -56112,7 +56212,7 @@
         <v>102</v>
       </c>
       <c r="O132" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P132" s="8"/>
     </row>
@@ -56163,7 +56263,7 @@
         <v>101</v>
       </c>
       <c r="O133" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P133" s="8"/>
     </row>
@@ -56214,7 +56314,7 @@
         <v>102</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P134" s="8"/>
     </row>
@@ -56265,7 +56365,7 @@
         <v>102</v>
       </c>
       <c r="O135" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P135" s="8"/>
     </row>
@@ -56316,7 +56416,7 @@
         <v>101</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P136" s="8"/>
     </row>
@@ -56454,7 +56554,7 @@
         <v>101</v>
       </c>
       <c r="O140" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P140" s="8"/>
     </row>
@@ -56505,7 +56605,7 @@
         <v>102</v>
       </c>
       <c r="O141" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P141" s="8"/>
     </row>
@@ -56556,7 +56656,7 @@
         <v>102</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P142" s="8"/>
     </row>
@@ -56607,7 +56707,7 @@
         <v>101</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P143" s="8"/>
     </row>
@@ -56716,7 +56816,7 @@
         <v>101</v>
       </c>
       <c r="O146" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P146" s="8"/>
     </row>
@@ -56767,7 +56867,7 @@
         <v>102</v>
       </c>
       <c r="O147" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P147" s="8"/>
     </row>
@@ -56818,7 +56918,7 @@
         <v>102</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P148" s="8"/>
     </row>
@@ -56918,7 +57018,7 @@
         <v>101</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P150" s="8"/>
     </row>
@@ -56969,7 +57069,7 @@
         <v>102</v>
       </c>
       <c r="O151" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P151" s="8"/>
     </row>
@@ -57020,10 +57120,10 @@
         <v>101</v>
       </c>
       <c r="O152" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P152" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" ht="12.75">
@@ -57073,10 +57173,10 @@
         <v>102</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P153" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154" ht="12.75">
@@ -57126,10 +57226,10 @@
         <v>102</v>
       </c>
       <c r="O154" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P154" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" ht="12.75">
@@ -57179,10 +57279,10 @@
         <v>100</v>
       </c>
       <c r="O155" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P155" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" ht="12.75">
@@ -57232,7 +57332,7 @@
         <v>100</v>
       </c>
       <c r="O156" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P156" s="8"/>
     </row>
@@ -57283,7 +57383,7 @@
         <v>102</v>
       </c>
       <c r="O157" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P157" s="8"/>
     </row>
@@ -57334,7 +57434,7 @@
         <v>101</v>
       </c>
       <c r="O158" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P158" s="8"/>
     </row>
@@ -57385,7 +57485,7 @@
         <v>103</v>
       </c>
       <c r="O159" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P159" s="8"/>
     </row>
@@ -57436,7 +57536,7 @@
         <v>102</v>
       </c>
       <c r="O160" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P160" s="8"/>
     </row>
@@ -57487,7 +57587,7 @@
         <v>102</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P161" s="8"/>
     </row>
@@ -57538,7 +57638,7 @@
         <v>101</v>
       </c>
       <c r="O162" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P162" s="8"/>
     </row>
@@ -57589,7 +57689,7 @@
         <v>101</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P163" s="8"/>
     </row>
@@ -57640,7 +57740,7 @@
         <v>102</v>
       </c>
       <c r="O164" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P164" s="8"/>
     </row>
@@ -57749,7 +57849,7 @@
         <v>102</v>
       </c>
       <c r="O167" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P167" s="8"/>
     </row>
@@ -57800,7 +57900,7 @@
         <v>102</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P168" s="8"/>
     </row>
@@ -57851,7 +57951,7 @@
         <v>101</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P169" s="8"/>
     </row>
@@ -57902,7 +58002,7 @@
         <v>100</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P170" s="8"/>
     </row>
@@ -57953,7 +58053,7 @@
         <v>101</v>
       </c>
       <c r="O171" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P171" s="8"/>
     </row>
@@ -58004,7 +58104,7 @@
         <v>101</v>
       </c>
       <c r="O172" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P172" s="8"/>
     </row>
@@ -58084,7 +58184,7 @@
         <v>102</v>
       </c>
       <c r="O174" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P174" s="8"/>
     </row>
@@ -58135,7 +58235,7 @@
         <v>101</v>
       </c>
       <c r="O175" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P175" s="8"/>
     </row>
@@ -58186,7 +58286,7 @@
         <v>101</v>
       </c>
       <c r="O176" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P176" s="8"/>
     </row>
@@ -58237,7 +58337,7 @@
         <v>101</v>
       </c>
       <c r="O177" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P177" s="8"/>
     </row>
@@ -58288,7 +58388,7 @@
         <v>101</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P178" s="8"/>
     </row>
@@ -58339,7 +58439,7 @@
         <v>102</v>
       </c>
       <c r="O179" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P179" s="8"/>
     </row>
@@ -58390,7 +58490,7 @@
         <v>102</v>
       </c>
       <c r="O180" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P180" s="8"/>
     </row>
@@ -58441,7 +58541,7 @@
         <v>101</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P181" s="8"/>
     </row>
@@ -58488,10 +58588,10 @@
         <v>101</v>
       </c>
       <c r="O182" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P182" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183" ht="12.75">
@@ -58541,7 +58641,7 @@
         <v>101</v>
       </c>
       <c r="O183" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P183" s="8"/>
     </row>
@@ -58592,7 +58692,7 @@
         <v>101</v>
       </c>
       <c r="O184" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P184" s="8"/>
     </row>
@@ -58643,7 +58743,7 @@
         <v>101</v>
       </c>
       <c r="O185" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P185" s="8"/>
     </row>
@@ -58694,7 +58794,7 @@
         <v>101</v>
       </c>
       <c r="O186" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P186" s="8"/>
     </row>
@@ -58745,7 +58845,7 @@
         <v>101</v>
       </c>
       <c r="O187" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P187" s="8"/>
     </row>
@@ -58796,7 +58896,7 @@
         <v>102</v>
       </c>
       <c r="O188" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P188" s="8"/>
     </row>
@@ -59862,7 +59962,7 @@
         <v>101</v>
       </c>
       <c r="O224" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P224" s="8"/>
     </row>
@@ -59913,7 +60013,7 @@
         <v>101</v>
       </c>
       <c r="O225" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P225" s="8"/>
     </row>
@@ -59964,7 +60064,7 @@
         <v>101</v>
       </c>
       <c r="O226" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P226" s="8"/>
     </row>
@@ -60015,7 +60115,7 @@
         <v>101</v>
       </c>
       <c r="O227" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P227" s="8"/>
     </row>
@@ -60124,7 +60224,7 @@
         <v>100</v>
       </c>
       <c r="O230" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P230" s="8"/>
     </row>
@@ -60175,7 +60275,7 @@
         <v>100</v>
       </c>
       <c r="O231" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P231" s="8"/>
     </row>
@@ -60371,7 +60471,7 @@
         <v>102</v>
       </c>
       <c r="O237" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P237" s="8"/>
     </row>
@@ -60422,7 +60522,7 @@
         <v>101</v>
       </c>
       <c r="O238" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P238" s="8"/>
     </row>
@@ -60589,7 +60689,7 @@
         <v>100</v>
       </c>
       <c r="O243" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P243" s="8"/>
     </row>
@@ -60640,7 +60740,7 @@
         <v>100</v>
       </c>
       <c r="O244" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P244" s="8"/>
     </row>
@@ -60691,7 +60791,7 @@
         <v>101</v>
       </c>
       <c r="O245" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P245" s="8"/>
     </row>
@@ -60742,7 +60842,7 @@
         <v>101</v>
       </c>
       <c r="O246" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P246" s="8"/>
     </row>
@@ -60793,7 +60893,7 @@
         <v>100</v>
       </c>
       <c r="O247" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P247" s="8"/>
     </row>
@@ -60844,7 +60944,7 @@
         <v>100</v>
       </c>
       <c r="O248" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P248" s="8"/>
     </row>
@@ -60895,7 +60995,7 @@
         <v>101</v>
       </c>
       <c r="O249" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P249" s="8"/>
     </row>
@@ -60946,7 +61046,7 @@
         <v>100</v>
       </c>
       <c r="O250" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P250" s="8"/>
     </row>
@@ -60997,10 +61097,10 @@
         <v>100</v>
       </c>
       <c r="O251" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P251" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="252" ht="12.75">
@@ -61050,10 +61150,10 @@
         <v>100</v>
       </c>
       <c r="O252" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P252" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="253" ht="12.75">
@@ -61103,7 +61203,7 @@
         <v>102</v>
       </c>
       <c r="O253" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P253" s="8"/>
     </row>
@@ -61154,7 +61254,7 @@
         <v>101</v>
       </c>
       <c r="O254" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P254" s="8"/>
     </row>
@@ -61205,7 +61305,7 @@
         <v>101</v>
       </c>
       <c r="O255" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P255" s="8"/>
     </row>
@@ -61256,10 +61356,10 @@
         <v>101</v>
       </c>
       <c r="O256" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P256" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="257" ht="12.75">
@@ -61309,7 +61409,7 @@
         <v>101</v>
       </c>
       <c r="O257" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P257" s="8"/>
     </row>
@@ -61360,7 +61460,7 @@
         <v>100</v>
       </c>
       <c r="O258" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P258" s="8"/>
     </row>
@@ -61411,7 +61511,7 @@
         <v>101</v>
       </c>
       <c r="O259" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P259" s="8"/>
     </row>
@@ -61462,7 +61562,7 @@
         <v>101</v>
       </c>
       <c r="O260" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P260" s="8"/>
     </row>
@@ -61513,7 +61613,7 @@
         <v>101</v>
       </c>
       <c r="O261" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P261" s="8"/>
     </row>
@@ -61564,7 +61664,7 @@
         <v>100</v>
       </c>
       <c r="O262" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P262" s="8"/>
     </row>
@@ -61615,7 +61715,7 @@
         <v>101</v>
       </c>
       <c r="O263" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P263" s="8"/>
     </row>
@@ -61666,7 +61766,7 @@
         <v>101</v>
       </c>
       <c r="O264" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P264" s="8"/>
     </row>
@@ -61717,7 +61817,7 @@
         <v>101</v>
       </c>
       <c r="O265" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P265" s="8"/>
     </row>
@@ -61768,10 +61868,10 @@
         <v>100</v>
       </c>
       <c r="O266" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P266" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="267" ht="12.75">
@@ -61821,10 +61921,10 @@
         <v>101</v>
       </c>
       <c r="O267" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P267" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="268" ht="12.75">
@@ -61874,10 +61974,10 @@
         <v>100</v>
       </c>
       <c r="O268" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P268" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="269" ht="12.75">
@@ -61927,10 +62027,10 @@
         <v>101</v>
       </c>
       <c r="O269" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P269" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="270" ht="12.75">
@@ -61980,10 +62080,10 @@
         <v>101</v>
       </c>
       <c r="O270" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P270" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="271" ht="12.75">
@@ -62033,10 +62133,10 @@
         <v>102</v>
       </c>
       <c r="O271" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P271" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="272" ht="12.75">
@@ -62086,10 +62186,10 @@
         <v>100</v>
       </c>
       <c r="O272" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P272" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="273" ht="12.75">
@@ -62139,7 +62239,7 @@
         <v>101</v>
       </c>
       <c r="O273" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P273" s="8"/>
     </row>
@@ -62190,7 +62290,7 @@
         <v>100</v>
       </c>
       <c r="O274" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P274" s="8"/>
     </row>
@@ -62241,7 +62341,7 @@
         <v>101</v>
       </c>
       <c r="O275" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P275" s="8"/>
     </row>
@@ -62292,7 +62392,7 @@
         <v>101</v>
       </c>
       <c r="O276" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P276" s="8"/>
     </row>
@@ -62343,7 +62443,7 @@
         <v>100</v>
       </c>
       <c r="O277" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P277" s="8"/>
     </row>
@@ -62394,7 +62494,7 @@
         <v>101</v>
       </c>
       <c r="O278" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P278" s="8"/>
     </row>
@@ -62445,7 +62545,7 @@
         <v>101</v>
       </c>
       <c r="O279" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P279" s="8"/>
     </row>
@@ -62496,7 +62596,7 @@
         <v>102</v>
       </c>
       <c r="O280" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P280" s="8"/>
     </row>
@@ -62547,7 +62647,7 @@
         <v>102</v>
       </c>
       <c r="O281" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P281" s="8"/>
     </row>
@@ -62598,7 +62698,7 @@
         <v>102</v>
       </c>
       <c r="O282" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P282" s="8"/>
     </row>
@@ -62649,7 +62749,7 @@
         <v>101</v>
       </c>
       <c r="O283" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P283" s="8"/>
     </row>
@@ -62700,7 +62800,7 @@
         <v>100</v>
       </c>
       <c r="O284" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P284" s="8"/>
     </row>
@@ -62751,10 +62851,10 @@
         <v>102</v>
       </c>
       <c r="O285" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P285" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="286" ht="12.75">
@@ -62804,7 +62904,7 @@
         <v>101</v>
       </c>
       <c r="O286" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P286" s="8"/>
     </row>
@@ -62855,7 +62955,7 @@
         <v>100</v>
       </c>
       <c r="O287" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P287" s="8"/>
     </row>
@@ -62906,7 +63006,7 @@
         <v>101</v>
       </c>
       <c r="O288" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P288" s="8"/>
     </row>
@@ -62957,7 +63057,7 @@
         <v>101</v>
       </c>
       <c r="O289" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P289" s="8"/>
     </row>
@@ -63008,7 +63108,7 @@
         <v>101</v>
       </c>
       <c r="O290" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P290" s="8"/>
     </row>
@@ -63117,7 +63217,7 @@
         <v>102</v>
       </c>
       <c r="O293" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P293" s="8"/>
     </row>
@@ -63168,7 +63268,7 @@
         <v>102</v>
       </c>
       <c r="O294" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P294" s="8"/>
     </row>
@@ -63219,7 +63319,7 @@
         <v>103</v>
       </c>
       <c r="O295" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P295" s="8"/>
     </row>
@@ -63270,7 +63370,7 @@
         <v>101</v>
       </c>
       <c r="O296" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P296" s="8"/>
     </row>
@@ -63321,7 +63421,7 @@
         <v>101</v>
       </c>
       <c r="O297" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P297" s="8"/>
     </row>
@@ -63401,7 +63501,7 @@
         <v>102</v>
       </c>
       <c r="O299" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P299" s="8"/>
     </row>
@@ -63452,7 +63552,7 @@
         <v>102</v>
       </c>
       <c r="O300" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P300" s="8"/>
     </row>
@@ -63503,7 +63603,7 @@
         <v>103</v>
       </c>
       <c r="O301" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P301" s="8"/>
     </row>
@@ -63554,10 +63654,10 @@
         <v>101</v>
       </c>
       <c r="O302" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P302" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="303" ht="12.75">
@@ -63607,7 +63707,7 @@
         <v>102</v>
       </c>
       <c r="O303" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P303" s="8"/>
     </row>
@@ -63658,7 +63758,7 @@
         <v>102</v>
       </c>
       <c r="O304" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P304" s="8"/>
     </row>
@@ -63709,7 +63809,7 @@
         <v>102</v>
       </c>
       <c r="O305" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P305" s="8"/>
     </row>
@@ -63760,10 +63860,10 @@
         <v>103</v>
       </c>
       <c r="O306" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P306" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="307" ht="12.75">
@@ -63813,10 +63913,10 @@
         <v>104</v>
       </c>
       <c r="O307" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P307" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="308" ht="12.75">
@@ -63866,10 +63966,10 @@
         <v>101</v>
       </c>
       <c r="O308" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P308" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="309" ht="12.75">
@@ -63919,10 +64019,10 @@
         <v>102</v>
       </c>
       <c r="O309" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P309" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="310" ht="12.75">
@@ -63972,7 +64072,7 @@
         <v>102</v>
       </c>
       <c r="O310" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P310" s="8"/>
     </row>
@@ -64023,7 +64123,7 @@
         <v>101</v>
       </c>
       <c r="O311" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P311" s="8"/>
     </row>
@@ -64161,7 +64261,7 @@
         <v>101</v>
       </c>
       <c r="O315" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P315" s="8"/>
     </row>
@@ -64212,7 +64312,7 @@
         <v>102</v>
       </c>
       <c r="O316" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P316" s="8"/>
     </row>
@@ -64288,7 +64388,7 @@
       </c>
       <c r="N318" s="8"/>
       <c r="O318" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P318" s="8"/>
     </row>
@@ -64339,7 +64439,7 @@
         <v>101</v>
       </c>
       <c r="O319" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P319" s="8"/>
     </row>
@@ -64421,10 +64521,10 @@
         <v>101</v>
       </c>
       <c r="O321" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P321" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="322" ht="12.75">
@@ -64474,10 +64574,10 @@
         <v>102</v>
       </c>
       <c r="O322" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P322" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="323" ht="12.75">
@@ -64527,10 +64627,10 @@
         <v>103</v>
       </c>
       <c r="O323" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P323" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="324" ht="12.75">
@@ -64580,7 +64680,7 @@
         <v>101</v>
       </c>
       <c r="O324" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P324" s="8"/>
     </row>
@@ -64631,10 +64731,10 @@
         <v>103</v>
       </c>
       <c r="O325" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P325" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="326" ht="12.75">
@@ -64684,7 +64784,7 @@
         <v>102</v>
       </c>
       <c r="O326" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P326" s="8"/>
     </row>
@@ -64735,10 +64835,10 @@
         <v>102</v>
       </c>
       <c r="O327" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P327" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="328" ht="12.75">
@@ -64788,7 +64888,7 @@
         <v>102</v>
       </c>
       <c r="O328" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P328" s="8"/>
     </row>
@@ -64839,7 +64939,7 @@
         <v>102</v>
       </c>
       <c r="O329" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P329" s="8"/>
     </row>
@@ -64890,7 +64990,7 @@
         <v>103</v>
       </c>
       <c r="O330" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P330" s="8"/>
     </row>
@@ -64941,7 +65041,7 @@
         <v>102</v>
       </c>
       <c r="O331" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P331" s="8"/>
     </row>
@@ -64992,7 +65092,7 @@
         <v>103</v>
       </c>
       <c r="O332" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P332" s="8"/>
     </row>
@@ -65043,7 +65143,7 @@
         <v>102</v>
       </c>
       <c r="O333" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P333" s="8"/>
     </row>
@@ -65123,7 +65223,7 @@
         <v>102</v>
       </c>
       <c r="O335" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P335" s="8"/>
     </row>
@@ -65174,7 +65274,7 @@
         <v>101</v>
       </c>
       <c r="O336" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P336" s="8"/>
     </row>
@@ -65225,7 +65325,7 @@
         <v>103</v>
       </c>
       <c r="O337" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P337" s="8"/>
     </row>
@@ -65276,10 +65376,10 @@
         <v>102</v>
       </c>
       <c r="O338" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P338" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="339" ht="12.75">
@@ -65329,7 +65429,7 @@
         <v>102</v>
       </c>
       <c r="O339" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P339" s="8"/>
     </row>
@@ -65380,7 +65480,7 @@
         <v>102</v>
       </c>
       <c r="O340" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P340" s="8"/>
     </row>
@@ -65431,7 +65531,7 @@
         <v>103</v>
       </c>
       <c r="O341" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P341" s="8"/>
     </row>
@@ -65482,7 +65582,7 @@
         <v>102</v>
       </c>
       <c r="O342" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P342" s="8"/>
     </row>
@@ -65533,10 +65633,10 @@
         <v>102</v>
       </c>
       <c r="O343" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P343" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="344" ht="12.75">
@@ -65586,7 +65686,7 @@
         <v>102</v>
       </c>
       <c r="O344" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P344" s="8"/>
     </row>
@@ -65637,7 +65737,7 @@
         <v>101</v>
       </c>
       <c r="O345" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P345" s="8"/>
     </row>
@@ -65688,7 +65788,7 @@
         <v>102</v>
       </c>
       <c r="O346" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P346" s="8"/>
     </row>
@@ -65739,7 +65839,7 @@
         <v>103</v>
       </c>
       <c r="O347" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P347" s="8"/>
     </row>
@@ -65790,7 +65890,7 @@
         <v>103</v>
       </c>
       <c r="O348" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P348" s="8"/>
     </row>
@@ -65841,7 +65941,7 @@
         <v>102</v>
       </c>
       <c r="O349" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P349" s="8"/>
     </row>
@@ -65892,7 +65992,7 @@
         <v>102</v>
       </c>
       <c r="O350" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P350" s="8"/>
     </row>
@@ -65943,7 +66043,7 @@
         <v>102</v>
       </c>
       <c r="O351" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P351" s="8"/>
     </row>
@@ -65994,7 +66094,7 @@
         <v>103</v>
       </c>
       <c r="O352" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P352" s="8"/>
     </row>
@@ -66045,7 +66145,7 @@
         <v>102</v>
       </c>
       <c r="O353" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P353" s="8"/>
     </row>
@@ -66562,7 +66662,7 @@
         <v>45049.256944444402</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" s="8">
         <v>35</v>
@@ -66590,7 +66690,7 @@
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O1" s="27"/>
       <c r="P1" s="11"/>
@@ -66609,7 +66709,7 @@
         <v>45050.256944444402</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C2" s="8">
         <v>45</v>
@@ -66637,7 +66737,7 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O2" s="27"/>
       <c r="P2" s="11"/>
@@ -66656,7 +66756,7 @@
         <v>45051.256944444402</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C3" s="8">
         <v>45</v>
@@ -66684,7 +66784,7 @@
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O3" s="27"/>
       <c r="P3" s="11"/>
@@ -66703,7 +66803,7 @@
         <v>45055.256944444402</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C4" s="8">
         <v>35</v>
@@ -66731,7 +66831,7 @@
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O4" s="27"/>
       <c r="P4" s="11"/>
@@ -66750,7 +66850,7 @@
         <v>45056.256944444402</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C5" s="8">
         <v>45</v>
@@ -66778,7 +66878,7 @@
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O5" s="27"/>
       <c r="P5" s="11"/>
@@ -66797,7 +66897,7 @@
         <v>45058.256944444402</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C6" s="8">
         <v>45</v>
@@ -66825,7 +66925,7 @@
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O6" s="27"/>
       <c r="P6" s="11"/>
@@ -66844,7 +66944,7 @@
         <v>45059.256944444402</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C7" s="8">
         <v>45</v>
@@ -66866,7 +66966,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O7" s="27"/>
       <c r="P7" s="11"/>
@@ -66885,7 +66985,7 @@
         <v>45060.256944444402</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C8" s="8">
         <v>45</v>
@@ -66907,7 +67007,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O8" s="27"/>
       <c r="P8" s="11"/>
@@ -66926,7 +67026,7 @@
         <v>45061.256944444402</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="8">
         <v>45</v>
@@ -66948,7 +67048,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O9" s="27"/>
       <c r="P9" s="11"/>
@@ -66967,7 +67067,7 @@
         <v>45062.256944444402</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C10" s="8">
         <v>45</v>
@@ -66989,7 +67089,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O10" s="27"/>
       <c r="P10" s="11"/>
@@ -67008,7 +67108,7 @@
         <v>45063.256944444445</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C11" s="8">
         <v>45</v>
@@ -67030,7 +67130,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O11" s="27"/>
       <c r="P11" s="11"/>
@@ -67049,7 +67149,7 @@
         <v>45064.256944444445</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C12" s="8">
         <v>30</v>
@@ -67071,7 +67171,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O12" s="27"/>
       <c r="P12" s="11"/>
@@ -67090,7 +67190,7 @@
         <v>45068.256944444445</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C13" s="8">
         <v>45</v>
@@ -67112,7 +67212,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O13" s="27"/>
       <c r="P13" s="11"/>
@@ -67131,7 +67231,7 @@
         <v>45069.256944444445</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C14" s="8">
         <v>45</v>
@@ -67153,7 +67253,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O14" s="27"/>
       <c r="P14" s="11"/>
@@ -67172,7 +67272,7 @@
         <v>45070.256944444445</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C15" s="8">
         <v>45</v>
@@ -67194,7 +67294,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O15" s="27"/>
       <c r="P15" s="11"/>
@@ -67213,7 +67313,7 @@
         <v>45071.256944444445</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C16" s="8">
         <v>45</v>
@@ -67235,7 +67335,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O16" s="27"/>
       <c r="P16" s="11"/>
@@ -67254,7 +67354,7 @@
         <v>45072.256944444445</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C17" s="8">
         <v>45</v>
@@ -67276,7 +67376,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O17" s="27"/>
       <c r="P17" s="11"/>
@@ -67295,7 +67395,7 @@
         <v>45073</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C18" s="8">
         <v>45</v>
@@ -67317,7 +67417,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="11"/>
@@ -67336,7 +67436,7 @@
         <v>45075</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C19" s="8">
         <v>45</v>
@@ -67358,7 +67458,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="11"/>
@@ -67377,7 +67477,7 @@
         <v>45076</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C20" s="8">
         <v>45</v>
@@ -67399,7 +67499,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O20" s="27"/>
       <c r="P20" s="11"/>
@@ -67418,7 +67518,7 @@
         <v>45078.256944444445</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" s="8">
         <v>45</v>
@@ -67440,7 +67540,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O21" s="27"/>
       <c r="P21" s="11"/>
@@ -67459,7 +67559,7 @@
         <v>45079.256944444445</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C22" s="8">
         <v>45</v>
@@ -67481,7 +67581,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O22" s="27"/>
       <c r="P22" s="11"/>
@@ -67500,7 +67600,7 @@
         <v>45080.256944444445</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C23" s="8">
         <v>45</v>
@@ -67522,7 +67622,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O23" s="27"/>
       <c r="P23" s="11"/>
@@ -67541,7 +67641,7 @@
         <v>45081.256944444445</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C24" s="8">
         <v>45</v>
@@ -67563,7 +67663,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O24" s="27"/>
       <c r="P24" s="11"/>
@@ -67582,7 +67682,7 @@
         <v>45082.256944444445</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C25" s="8">
         <v>45</v>
@@ -67604,7 +67704,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O25" s="27"/>
       <c r="P25" s="11"/>
@@ -67623,7 +67723,7 @@
         <v>45083.256944444445</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C26" s="8">
         <v>45</v>
@@ -67645,7 +67745,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O26" s="27"/>
       <c r="P26" s="11"/>
@@ -67664,7 +67764,7 @@
         <v>45084.256944444445</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C27" s="8">
         <v>45</v>
@@ -67686,7 +67786,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O27" s="27"/>
       <c r="P27" s="11"/>
@@ -67705,7 +67805,7 @@
         <v>45085.256944444445</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C28" s="8">
         <v>45</v>
@@ -67729,7 +67829,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O28" s="27"/>
       <c r="P28" s="11"/>
@@ -67748,7 +67848,7 @@
         <v>45086</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C29" s="8">
         <v>45</v>
@@ -67770,7 +67870,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O29" s="27"/>
       <c r="P29" s="11"/>
@@ -67789,7 +67889,7 @@
         <v>45089</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C30" s="8">
         <v>45</v>
@@ -67811,7 +67911,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O30" s="27"/>
       <c r="P30" s="11"/>
@@ -67830,7 +67930,7 @@
         <v>45090</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C31" s="8">
         <v>45</v>
@@ -67852,7 +67952,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="11"/>
@@ -67871,7 +67971,7 @@
         <v>45091</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C32" s="8">
         <v>45</v>
@@ -67893,7 +67993,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O32" s="27"/>
       <c r="P32" s="11"/>
@@ -67912,7 +68012,7 @@
         <v>45092</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C33" s="8">
         <v>45</v>
@@ -67934,7 +68034,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O33" s="27"/>
       <c r="P33" s="11"/>
@@ -67953,7 +68053,7 @@
         <v>45093</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C34" s="8">
         <v>45</v>
@@ -67975,7 +68075,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O34" s="27"/>
       <c r="P34" s="11"/>
@@ -67994,7 +68094,7 @@
         <v>45094</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C35" s="8">
         <v>45</v>
@@ -68016,7 +68116,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O35" s="27"/>
       <c r="P35" s="11"/>
@@ -68035,7 +68135,7 @@
         <v>45095</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C36" s="8">
         <v>45</v>
@@ -68057,7 +68157,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O36" s="27"/>
       <c r="P36" s="11"/>
@@ -68076,7 +68176,7 @@
         <v>45096</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C37" s="8">
         <v>45</v>
@@ -68098,7 +68198,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O37" s="27"/>
       <c r="P37" s="11"/>
@@ -68117,7 +68217,7 @@
         <v>45097</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C38" s="8">
         <v>45</v>
@@ -68139,7 +68239,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O38" s="27"/>
       <c r="P38" s="11"/>
@@ -68158,7 +68258,7 @@
         <v>45098</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C39" s="8">
         <v>45</v>
@@ -68180,7 +68280,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O39" s="27"/>
       <c r="P39" s="11"/>
@@ -68199,7 +68299,7 @@
         <v>45099</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C40" s="8">
         <v>45</v>
@@ -68221,7 +68321,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O40" s="27"/>
       <c r="P40" s="11"/>
@@ -68240,7 +68340,7 @@
         <v>45100</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C41" s="8">
         <v>45</v>
@@ -68266,7 +68366,7 @@
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O41" s="27"/>
       <c r="P41" s="11"/>
@@ -68285,7 +68385,7 @@
         <v>45102</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C42" s="8">
         <v>45</v>
@@ -68313,7 +68413,7 @@
       </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O42" s="27"/>
       <c r="P42" s="11"/>
@@ -68332,7 +68432,7 @@
         <v>45103</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C43" s="8">
         <v>45</v>
@@ -68360,7 +68460,7 @@
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O43" s="27"/>
       <c r="P43" s="11"/>
@@ -68379,7 +68479,7 @@
         <v>45104</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C44" s="8">
         <v>45</v>
@@ -68407,7 +68507,7 @@
       </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O44" s="27"/>
       <c r="P44" s="11"/>
@@ -68426,7 +68526,7 @@
         <v>45105</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C45" s="8">
         <v>45</v>
@@ -68456,7 +68556,7 @@
         <v>105</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O45" s="27"/>
       <c r="P45" s="11"/>
@@ -68475,7 +68575,7 @@
         <v>45106</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C46" s="8">
         <v>45</v>
@@ -68505,7 +68605,7 @@
         <v>107</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O46" s="27"/>
       <c r="P46" s="11"/>
@@ -68524,7 +68624,7 @@
         <v>45107</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C47" s="8">
         <v>45</v>
@@ -68554,7 +68654,7 @@
         <v>105</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O47" s="27"/>
       <c r="P47" s="11"/>
@@ -68573,7 +68673,7 @@
         <v>45108</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C48" s="8">
         <v>45</v>
@@ -68603,7 +68703,7 @@
         <v>105</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O48" s="27"/>
       <c r="P48" s="11"/>
@@ -68622,7 +68722,7 @@
         <v>45109.260416666664</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C49" s="8">
         <v>45</v>
@@ -68652,7 +68752,7 @@
         <v>106</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O49" s="27"/>
       <c r="P49" s="11"/>
@@ -68671,7 +68771,7 @@
         <v>45110.260416666664</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C50" s="8">
         <v>45</v>
@@ -68697,7 +68797,7 @@
         <v>107</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O50" s="27"/>
       <c r="P50" s="11"/>
@@ -68716,7 +68816,7 @@
         <v>45111.260416666664</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C51" s="8">
         <v>45</v>
@@ -68746,7 +68846,7 @@
         <v>105</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O51" s="27"/>
       <c r="P51" s="11"/>
@@ -68785,7 +68885,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O52" s="27"/>
       <c r="P52" s="11"/>
@@ -68824,7 +68924,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O53" s="27"/>
       <c r="P53" s="11"/>
@@ -68843,7 +68943,7 @@
         <v>45124.260416666664</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C54" s="8">
         <v>45</v>
@@ -68871,7 +68971,7 @@
       </c>
       <c r="M54" s="8"/>
       <c r="N54" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O54" s="27"/>
       <c r="P54" s="11"/>
@@ -68890,7 +68990,7 @@
         <v>45125.253472222219</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C55" s="8">
         <v>45</v>
@@ -68920,7 +69020,7 @@
         <v>104</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
@@ -68939,7 +69039,7 @@
         <v>45126.253472222219</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C56" s="8">
         <v>45</v>
@@ -68969,7 +69069,7 @@
         <v>104</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
@@ -68988,7 +69088,7 @@
         <v>45127.253472222219</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C57" s="8">
         <v>45</v>
@@ -69018,7 +69118,7 @@
         <v>105</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O57" s="29"/>
       <c r="P57" s="29"/>
@@ -69037,7 +69137,7 @@
         <v>45128.253472222219</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C58" s="8">
         <v>45</v>
@@ -69067,7 +69167,7 @@
         <v>104</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
@@ -69086,7 +69186,7 @@
         <v>45131.253472222219</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C59" s="8">
         <v>45</v>
@@ -69116,7 +69216,7 @@
         <v>104</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O59" s="29"/>
       <c r="P59" s="29"/>
@@ -69135,7 +69235,7 @@
         <v>45132.274305555555</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C60" s="8">
         <v>45</v>
@@ -69165,7 +69265,7 @@
         <v>104</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O60" s="29"/>
       <c r="P60" s="29"/>
@@ -69184,7 +69284,7 @@
         <v>45133.274305555555</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C61" s="8">
         <v>45</v>
@@ -69214,7 +69314,7 @@
         <v>105</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O61" s="29"/>
       <c r="P61" s="29"/>
@@ -69233,7 +69333,7 @@
         <v>45134.274305555555</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C62" s="8">
         <v>45</v>
@@ -69263,7 +69363,7 @@
         <v>104</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O62" s="29"/>
       <c r="P62" s="29"/>
@@ -69282,7 +69382,7 @@
         <v>45135.25</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C63" s="8">
         <v>45</v>
@@ -69312,7 +69412,7 @@
         <v>104</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O63" s="29"/>
       <c r="P63" s="29"/>
@@ -69331,7 +69431,7 @@
         <v>45138.260416666664</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C64" s="8">
         <v>45</v>
@@ -69359,7 +69459,7 @@
       </c>
       <c r="M64" s="8"/>
       <c r="N64" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O64" s="29"/>
       <c r="P64" s="29"/>
@@ -69378,7 +69478,7 @@
         <v>45139.253472222219</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C65" s="8">
         <v>45</v>
@@ -69408,7 +69508,7 @@
         <v>104</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O65" s="29"/>
       <c r="P65" s="29"/>
@@ -69427,7 +69527,7 @@
         <v>45145.260416666664</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C66" s="8">
         <v>45</v>
@@ -69457,7 +69557,7 @@
         <v>104</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O66" s="29"/>
       <c r="P66" s="29"/>
@@ -69476,7 +69576,7 @@
         <v>45146.260416666664</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C67" s="8">
         <v>45</v>
@@ -69506,7 +69606,7 @@
         <v>104</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O67" s="29"/>
       <c r="P67" s="29"/>
@@ -69525,7 +69625,7 @@
         <v>45147.274305555555</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C68" s="8">
         <v>45</v>
@@ -69555,7 +69655,7 @@
         <v>105</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O68" s="29"/>
       <c r="P68" s="29"/>
@@ -69574,7 +69674,7 @@
         <v>45153.267361111109</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C69" s="8">
         <v>45</v>
@@ -69604,7 +69704,7 @@
         <v>104</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O69" s="29"/>
       <c r="P69" s="29"/>
@@ -69623,7 +69723,7 @@
         <v>45157.28125</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C70" s="8">
         <v>45</v>
@@ -69653,7 +69753,7 @@
         <v>104</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="29"/>
       <c r="P70" s="29"/>
@@ -69672,7 +69772,7 @@
         <v>45173.28125</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C71" s="8">
         <v>45</v>
@@ -69702,7 +69802,7 @@
         <v>104</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O71" s="29"/>
       <c r="P71" s="29"/>
@@ -69721,7 +69821,7 @@
         <v>45174.253472222219</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C72" s="8">
         <v>45</v>
@@ -69751,7 +69851,7 @@
         <v>104</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O72" s="29"/>
       <c r="P72" s="29"/>
@@ -69770,7 +69870,7 @@
         <v>45175.253472222219</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C73" s="8">
         <v>45</v>
@@ -69800,7 +69900,7 @@
         <v>104</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O73" s="29"/>
       <c r="P73" s="29"/>
@@ -69819,7 +69919,7 @@
         <v>45176.253472222219</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C74" s="8">
         <v>45</v>
@@ -69853,7 +69953,7 @@
         <v>104</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O74" s="29"/>
       <c r="P74" s="29"/>
@@ -69872,7 +69972,7 @@
         <v>45177.270833333336</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C75" s="8">
         <v>45</v>
@@ -69906,7 +70006,7 @@
         <v>105</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O75" s="29"/>
       <c r="P75" s="29"/>
@@ -69925,7 +70025,7 @@
         <v>45178.270833333336</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C76" s="8">
         <v>45</v>
@@ -69959,7 +70059,7 @@
         <v>104</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O76" s="29"/>
       <c r="P76" s="29"/>
@@ -69978,7 +70078,7 @@
         <v>45179.270833333336</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C77" s="8">
         <v>45</v>
@@ -70012,7 +70112,7 @@
         <v>104</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O77" s="29"/>
       <c r="P77" s="29"/>
@@ -70031,7 +70131,7 @@
         <v>45180.256944444445</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C78" s="8">
         <v>45</v>
@@ -70065,7 +70165,7 @@
         <v>104</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O78" s="29"/>
       <c r="P78" s="29"/>
@@ -70084,7 +70184,7 @@
         <v>45181.270833333336</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C79" s="8">
         <v>45</v>
@@ -70118,7 +70218,7 @@
         <v>105</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O79" s="29"/>
       <c r="P79" s="29"/>
@@ -70137,7 +70237,7 @@
         <v>45182.260416666664</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C80" s="8">
         <v>45</v>
@@ -70171,7 +70271,7 @@
         <v>105</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" ht="14.25">
@@ -70179,7 +70279,7 @@
         <v>45183.256944444445</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C81" s="8">
         <v>45</v>
@@ -70213,7 +70313,7 @@
         <v>105</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" ht="14.25">
@@ -70221,7 +70321,7 @@
         <v>45184.253472222219</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C82" s="8">
         <v>45</v>
@@ -70255,7 +70355,7 @@
         <v>104</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" ht="14.25">
@@ -70263,7 +70363,7 @@
         <v>45185.263888888891</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C83" s="8">
         <v>45</v>
@@ -70297,7 +70397,7 @@
         <v>104</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" ht="14.25">
@@ -70305,7 +70405,7 @@
         <v>45186.270833333336</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C84" s="8">
         <v>45</v>
@@ -70339,7 +70439,7 @@
         <v>104</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" ht="14.25">
@@ -70347,7 +70447,7 @@
         <v>45194.260416666664</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C85" s="8">
         <v>45</v>
@@ -70381,7 +70481,7 @@
         <v>105</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" ht="14.25">
@@ -70389,7 +70489,7 @@
         <v>45195.260416666664</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C86" s="8">
         <v>45</v>
@@ -70423,7 +70523,7 @@
         <v>104</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" ht="14.25">
@@ -70431,7 +70531,7 @@
         <v>45196.270833333336</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C87" s="8">
         <v>45</v>
@@ -70465,7 +70565,7 @@
         <v>104</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" ht="14.25">
@@ -70473,7 +70573,7 @@
         <v>45197.25</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C88" s="8">
         <v>45</v>
@@ -70507,7 +70607,7 @@
         <v>104</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" ht="14.25">
@@ -70515,7 +70615,7 @@
         <v>45198.25</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C89" s="8">
         <v>45</v>
@@ -70549,10 +70649,10 @@
         <v>104</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O89" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" ht="14.25">
@@ -70560,7 +70660,7 @@
         <v>45199.291666666664</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C90" s="8">
         <v>45</v>
@@ -70594,10 +70694,10 @@
         <v>104</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" ht="14.25">
@@ -70605,7 +70705,7 @@
         <v>45200.416666666664</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C91" s="8">
         <v>45</v>
@@ -70639,10 +70739,10 @@
         <v>104</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" ht="14.25">
@@ -70650,7 +70750,7 @@
         <v>45202.25</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C92" s="8">
         <v>45</v>
@@ -70684,10 +70784,10 @@
         <v>104</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O92" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" ht="14.25">
@@ -70695,7 +70795,7 @@
         <v>45203.270833333336</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C93" s="8">
         <v>45</v>
@@ -70729,10 +70829,10 @@
         <v>104</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O93" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" ht="14.25">
@@ -70740,7 +70840,7 @@
         <v>45204.256944444445</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C94" s="8">
         <v>45</v>
@@ -70774,7 +70874,7 @@
         <v>104</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" ht="14.25">
@@ -70782,7 +70882,7 @@
         <v>45205.260416666664</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C95" s="8">
         <v>45</v>
@@ -70816,7 +70916,7 @@
         <v>104</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" ht="14.25">
@@ -70824,7 +70924,7 @@
         <v>45206.277777777781</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C96" s="8">
         <v>45</v>
@@ -70858,7 +70958,7 @@
         <v>104</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" ht="14.25">
@@ -70866,7 +70966,7 @@
         <v>45208.256944444445</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C97" s="8">
         <v>45</v>
@@ -70900,7 +71000,7 @@
         <v>104</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" ht="14.25">
@@ -70908,7 +71008,7 @@
         <v>45209.25</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C98" s="8">
         <v>45</v>
@@ -70942,10 +71042,10 @@
         <v>103</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" ht="14.25">
@@ -70953,7 +71053,7 @@
         <v>45210.25</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C99" s="8">
         <v>45</v>
@@ -70987,7 +71087,7 @@
         <v>103</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" ht="14.25">
@@ -70995,7 +71095,7 @@
         <v>45211.253472222219</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C100" s="8">
         <v>45</v>
@@ -71029,7 +71129,7 @@
         <v>103</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" ht="14.25">
@@ -71037,7 +71137,7 @@
         <v>45212.256944444445</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C101" s="8">
         <v>45</v>
@@ -71071,7 +71171,7 @@
         <v>104</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" ht="14.25">
@@ -71079,7 +71179,7 @@
         <v>45215.243055555555</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C102" s="8">
         <v>45</v>
@@ -71113,7 +71213,7 @@
         <v>103</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" ht="14.25">
@@ -71121,7 +71221,7 @@
         <v>45216.243055555555</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C103" s="8">
         <v>45</v>
@@ -71155,7 +71255,7 @@
         <v>103</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" ht="14.25">
@@ -71197,7 +71297,7 @@
         <v>103</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" ht="14.25">
@@ -71239,7 +71339,7 @@
         <v>103</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" ht="14.25">
@@ -71281,7 +71381,7 @@
         <v>104</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" ht="14.25">
@@ -71323,7 +71423,7 @@
         <v>104</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" ht="14.25">
@@ -71365,7 +71465,7 @@
         <v>104</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" ht="12.75">
@@ -71407,7 +71507,7 @@
         <v>104</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" ht="12.75">
@@ -71449,7 +71549,7 @@
         <v>104</v>
       </c>
       <c r="N110" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" ht="12.75">
@@ -71491,7 +71591,7 @@
         <v>103</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" ht="12.75">
@@ -71533,7 +71633,7 @@
         <v>103</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" ht="12.75">
@@ -71575,7 +71675,7 @@
         <v>104</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" ht="12.75">
@@ -71617,10 +71717,10 @@
         <v>104</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O114" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" ht="12.75">
@@ -71662,7 +71762,7 @@
         <v>103</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O115" s="30"/>
     </row>
@@ -71705,7 +71805,7 @@
         <v>103</v>
       </c>
       <c r="N116" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O116" s="30"/>
     </row>
@@ -71748,7 +71848,7 @@
         <v>103</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" ht="12.75">
@@ -71790,7 +71890,7 @@
         <v>103</v>
       </c>
       <c r="N118" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" ht="12.75">
@@ -71832,7 +71932,7 @@
         <v>103</v>
       </c>
       <c r="N119" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" ht="12.75">
@@ -71876,7 +71976,7 @@
         <v>103</v>
       </c>
       <c r="N120" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" ht="12.75">
@@ -71920,7 +72020,7 @@
         <v>104</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" ht="12.75">
@@ -71964,7 +72064,7 @@
         <v>103</v>
       </c>
       <c r="N122" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" ht="12.75">
@@ -72008,7 +72108,7 @@
         <v>103</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" ht="12.75">
@@ -72052,7 +72152,7 @@
         <v>103</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" ht="12.75">
@@ -72096,7 +72196,7 @@
         <v>104</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" ht="12.75">
@@ -72140,7 +72240,7 @@
         <v>103</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" ht="12.75">
@@ -72184,7 +72284,7 @@
         <v>103</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" ht="12.75">
@@ -72228,7 +72328,7 @@
         <v>104</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" ht="12.75">
@@ -72272,7 +72372,7 @@
         <v>103</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="130" ht="12.75">
@@ -72316,7 +72416,7 @@
         <v>103</v>
       </c>
       <c r="N130" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="131" ht="12.75">
@@ -72360,7 +72460,7 @@
         <v>103</v>
       </c>
       <c r="N131" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="132" ht="12.75">
@@ -72404,7 +72504,7 @@
         <v>103</v>
       </c>
       <c r="N132" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133" ht="12.75">
@@ -72448,7 +72548,7 @@
         <v>103</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="134" ht="12.75">
@@ -72492,7 +72592,7 @@
         <v>103</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" ht="12.75">
@@ -72536,7 +72636,7 @@
         <v>104</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="136" ht="12.75">
@@ -72580,7 +72680,7 @@
         <v>103</v>
       </c>
       <c r="N136" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" ht="12.75">
@@ -72624,7 +72724,7 @@
         <v>103</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" ht="12.75">
@@ -72668,7 +72768,7 @@
         <v>103</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" ht="12.75">
@@ -72712,7 +72812,7 @@
         <v>103</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" ht="12.75">
@@ -72754,7 +72854,7 @@
         <v>103</v>
       </c>
       <c r="N140" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" ht="12.75">
@@ -72796,7 +72896,7 @@
         <v>103</v>
       </c>
       <c r="N141" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142" ht="12.75">
@@ -72840,7 +72940,7 @@
         <v>103</v>
       </c>
       <c r="N142" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" ht="12.75">
@@ -72884,7 +72984,7 @@
         <v>103</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144" ht="12.75">
@@ -72928,7 +73028,7 @@
         <v>103</v>
       </c>
       <c r="N144" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" ht="12.75">
@@ -72972,7 +73072,7 @@
         <v>103</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" ht="12.75">
@@ -73016,7 +73116,7 @@
         <v>103</v>
       </c>
       <c r="N146" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" ht="12.75">
@@ -73060,7 +73160,7 @@
         <v>104</v>
       </c>
       <c r="N147" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148" ht="12.75">
@@ -73104,7 +73204,7 @@
         <v>103</v>
       </c>
       <c r="N148" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="149" ht="12.75">
@@ -73148,7 +73248,7 @@
         <v>103</v>
       </c>
       <c r="N149" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="150" ht="12.75">
@@ -73192,7 +73292,7 @@
         <v>103</v>
       </c>
       <c r="N150" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="151" ht="12.75">
@@ -73236,7 +73336,7 @@
         <v>103</v>
       </c>
       <c r="N151" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" ht="12.75" hidden="1">
@@ -73440,7 +73540,7 @@
         <v>45290.329861111109</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C159" s="8">
         <v>45</v>
@@ -74347,7 +74447,7 @@
         <v>40058.760416666701</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C2" s="36">
         <v>45</v>
@@ -74377,7 +74477,7 @@
       </c>
       <c r="M2" s="36"/>
       <c r="N2" s="36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -74396,7 +74496,7 @@
         <v>40060.260416666701</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C3" s="36">
         <v>45</v>
@@ -74427,7 +74527,7 @@
       </c>
       <c r="M3" s="36"/>
       <c r="N3" s="36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
@@ -74446,7 +74546,7 @@
         <v>40063.760416666701</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C4" s="36">
         <v>45</v>
@@ -74476,7 +74576,7 @@
       </c>
       <c r="M4" s="36"/>
       <c r="N4" s="36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
@@ -74495,7 +74595,7 @@
         <v>40065.260416666701</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C5" s="36">
         <v>45</v>
@@ -74525,7 +74625,7 @@
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -74544,7 +74644,7 @@
         <v>40067.729166666701</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C6" s="36">
         <v>45</v>
@@ -74574,7 +74674,7 @@
       </c>
       <c r="M6" s="36"/>
       <c r="N6" s="36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -74593,7 +74693,7 @@
         <v>40071.791666666701</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C7" s="36">
         <v>45</v>
@@ -74623,7 +74723,7 @@
       </c>
       <c r="M7" s="36"/>
       <c r="N7" s="36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -74642,7 +74742,7 @@
         <v>40073.791666666701</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C8" s="36">
         <v>45</v>
@@ -74670,7 +74770,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -74689,7 +74789,7 @@
         <v>40253.291666666701</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C9" s="32">
         <v>25</v>
@@ -74717,7 +74817,7 @@
       <c r="L9" s="34"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -74736,7 +74836,7 @@
         <v>40254.75</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C10" s="32">
         <v>45</v>
@@ -74764,7 +74864,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="32"/>
       <c r="N10" s="32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -74783,7 +74883,7 @@
         <v>40552.3125</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C11" s="36">
         <v>45</v>
@@ -74811,7 +74911,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -74830,7 +74930,7 @@
         <v>40617.3125</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C12" s="36">
         <v>45</v>
@@ -74854,7 +74954,7 @@
       <c r="L12" s="39"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
@@ -74873,7 +74973,7 @@
         <v>40736.322916666701</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C13" s="36">
         <v>15</v>
@@ -74903,7 +75003,7 @@
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
@@ -74922,7 +75022,7 @@
         <v>40737.322916666701</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C14" s="36">
         <v>15</v>
@@ -74952,7 +75052,7 @@
       </c>
       <c r="M14" s="36"/>
       <c r="N14" s="36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
@@ -74971,7 +75071,7 @@
         <v>40738.40625</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C15" s="36">
         <v>15</v>
@@ -75001,7 +75101,7 @@
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
@@ -75020,7 +75120,7 @@
         <v>40739.3125</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C16" s="36">
         <v>15</v>
@@ -75050,7 +75150,7 @@
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -75069,7 +75169,7 @@
         <v>40742.326388888898</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C17" s="36">
         <v>15</v>
@@ -75099,7 +75199,7 @@
       </c>
       <c r="M17" s="36"/>
       <c r="N17" s="36" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -75118,7 +75218,7 @@
         <v>40743.322916666701</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C18" s="36">
         <v>15</v>
@@ -75150,7 +75250,7 @@
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -75169,7 +75269,7 @@
         <v>40744.322916666701</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C19" s="36">
         <v>15</v>
@@ -75201,7 +75301,7 @@
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -75220,7 +75320,7 @@
         <v>40745.322916666701</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C20" s="36">
         <v>15</v>
@@ -75252,7 +75352,7 @@
       </c>
       <c r="M20" s="36"/>
       <c r="N20" s="36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -75271,7 +75371,7 @@
         <v>40746.326388888898</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" s="36">
         <v>15</v>
@@ -75303,7 +75403,7 @@
       </c>
       <c r="M21" s="36"/>
       <c r="N21" s="36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
@@ -75322,7 +75422,7 @@
         <v>41115.295138888898</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C22" s="32">
         <v>15</v>
@@ -75354,7 +75454,7 @@
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="32" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
@@ -75373,7 +75473,7 @@
         <v>41180.309027777803</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C23" s="32">
         <v>15</v>
@@ -75403,7 +75503,7 @@
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
@@ -75422,7 +75522,7 @@
         <v>41180.319444444402</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C24" s="32">
         <v>15</v>
@@ -75452,7 +75552,7 @@
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
@@ -75471,7 +75571,7 @@
         <v>41195.277777777803</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C25" s="32">
         <v>15</v>
@@ -75501,7 +75601,7 @@
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
@@ -75520,7 +75620,7 @@
         <v>41217.152777777803</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C26" s="32">
         <v>45</v>
@@ -75550,7 +75650,7 @@
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
@@ -75569,7 +75669,7 @@
         <v>41249.201388888898</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C27" s="32">
         <v>30</v>
@@ -75599,7 +75699,7 @@
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
@@ -75618,7 +75718,7 @@
         <v>41375.25</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C28" s="36">
         <v>30</v>
@@ -75648,7 +75748,7 @@
       </c>
       <c r="M28" s="36"/>
       <c r="N28" s="36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
@@ -75667,7 +75767,7 @@
         <v>41380</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C29" s="36">
         <v>30</v>
@@ -75697,7 +75797,7 @@
       </c>
       <c r="M29" s="36"/>
       <c r="N29" s="36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
@@ -75716,7 +75816,7 @@
         <v>41383.208333333299</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C30" s="36">
         <v>30</v>
@@ -75746,7 +75846,7 @@
       </c>
       <c r="M30" s="36"/>
       <c r="N30" s="36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="29"/>
@@ -75765,7 +75865,7 @@
         <v>41387.1875</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C31" s="36">
         <v>30</v>
@@ -75795,7 +75895,7 @@
       </c>
       <c r="M31" s="36"/>
       <c r="N31" s="36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
@@ -75814,7 +75914,7 @@
         <v>41396.229166666701</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C32" s="36">
         <v>30</v>
@@ -75844,7 +75944,7 @@
       </c>
       <c r="M32" s="36"/>
       <c r="N32" s="36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
@@ -75863,7 +75963,7 @@
         <v>41401.225694444402</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C33" s="36">
         <v>30</v>
@@ -75893,7 +75993,7 @@
       </c>
       <c r="M33" s="36"/>
       <c r="N33" s="36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O33" s="29"/>
       <c r="P33" s="29"/>
@@ -75912,7 +76012,7 @@
         <v>41409.194444444402</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C34" s="36">
         <v>30</v>
@@ -75942,7 +76042,7 @@
       </c>
       <c r="M34" s="36"/>
       <c r="N34" s="36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
@@ -75961,7 +76061,7 @@
         <v>41411.25</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C35" s="36">
         <v>30</v>
@@ -75991,7 +76091,7 @@
       </c>
       <c r="M35" s="36"/>
       <c r="N35" s="36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="29"/>
@@ -76010,7 +76110,7 @@
         <v>41690.270833333299</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C36" s="32">
         <v>30</v>
@@ -76040,7 +76140,7 @@
       </c>
       <c r="M36" s="32"/>
       <c r="N36" s="32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
@@ -76096,7 +76196,7 @@
         <v>43358.277777777803</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="44">
         <v>40</v>
@@ -76124,7 +76224,7 @@
       </c>
       <c r="M38" s="44"/>
       <c r="N38" s="44" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
@@ -76143,7 +76243,7 @@
         <v>43363.277777777803</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="44">
         <v>25</v>
@@ -76171,7 +76271,7 @@
       </c>
       <c r="M39" s="44"/>
       <c r="N39" s="44" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
@@ -76190,7 +76290,7 @@
         <v>43363.277777777803</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="44">
         <v>28</v>
@@ -76218,7 +76318,7 @@
       </c>
       <c r="M40" s="44"/>
       <c r="N40" s="44" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
